--- a/previsao_trens/src/DICIONARIOS/MODELO_RELATORIO_DETALHE.xlsx
+++ b/previsao_trens/src/DICIONARIOS/MODELO_RELATORIO_DETALHE.xlsx
@@ -2143,31 +2143,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="60" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2180,13 +2187,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink 3" xfId="1"/>
@@ -2474,29 +2474,29 @@
   <dimension ref="A1:BZ304"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AX185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BK201" sqref="BK201"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="99" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="99" customWidth="1"/>
     <col min="2" max="2" width="19" style="194" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="99" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="99" customWidth="1"/>
-    <col min="7" max="76" width="4.7109375" style="99" customWidth="1"/>
-    <col min="77" max="77" width="9.140625" style="98" customWidth="1"/>
-    <col min="78" max="1168" width="9.140625" style="99" customWidth="1"/>
-    <col min="1169" max="16384" width="9.140625" style="99"/>
+    <col min="3" max="4" width="8.6640625" style="99" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="99" customWidth="1"/>
+    <col min="7" max="76" width="4.6640625" style="99" customWidth="1"/>
+    <col min="77" max="77" width="9.109375" style="98" customWidth="1"/>
+    <col min="78" max="1168" width="9.109375" style="99" customWidth="1"/>
+    <col min="1169" max="16384" width="9.109375" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="95">
         <f ca="1">TODAY()</f>
-        <v>45510</v>
+        <v>45518</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2583,7 +2583,7 @@
       <c r="BW1" s="203"/>
       <c r="BX1" s="204"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="96"/>
       <c r="C2" s="11"/>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="BX2" s="200"/>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="100" t="s">
         <v>26</v>
       </c>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="BZ4" s="98"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="113" t="s">
         <v>26</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="113" t="s">
         <v>26</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
         <v>26</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="113" t="s">
         <v>26</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="113" t="s">
         <v>26</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="100" t="s">
         <v>26</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="113" t="s">
         <v>26</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="113" t="s">
         <v>26</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="125" t="s">
         <v>35</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="100" t="s">
         <v>26</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="113" t="s">
         <v>26</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="113" t="s">
         <v>26</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A17" s="100" t="s">
         <v>26</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A18" s="113" t="s">
         <v>26</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A19" s="113" t="s">
         <v>26</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A20" s="100" t="s">
         <v>26</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A21" s="113" t="s">
         <v>26</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A22" s="113" t="s">
         <v>26</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A23" s="125" t="s">
         <v>35</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A24" s="100" t="s">
         <v>26</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A25" s="113" t="s">
         <v>26</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A26" s="113" t="s">
         <v>26</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A27" s="100" t="s">
         <v>26</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A28" s="113" t="s">
         <v>26</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A29" s="113" t="s">
         <v>26</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A30" s="100" t="s">
         <v>26</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A31" s="113" t="s">
         <v>26</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A32" s="113" t="s">
         <v>26</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A33" s="100" t="s">
         <v>26</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A34" s="113" t="s">
         <v>26</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A35" s="113" t="s">
         <v>26</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A36" s="125" t="s">
         <v>35</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A37" s="100" t="s">
         <v>26</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A38" s="113" t="s">
         <v>26</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A39" s="113" t="s">
         <v>26</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A40" s="100" t="s">
         <v>26</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A41" s="113" t="s">
         <v>26</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A42" s="113" t="s">
         <v>26</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A43" s="100" t="s">
         <v>26</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A44" s="113" t="s">
         <v>26</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A45" s="113" t="s">
         <v>26</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A46" s="125" t="s">
         <v>35</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A47" s="100" t="s">
         <v>41</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A48" s="113" t="s">
         <v>41</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A49" s="113" t="s">
         <v>41</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A50" s="100" t="s">
         <v>43</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A51" s="113" t="s">
         <v>44</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A52" s="113" t="s">
         <v>44</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A53" s="100" t="s">
         <v>43</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A54" s="113" t="s">
         <v>43</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A55" s="113" t="s">
         <v>43</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A56" s="100" t="s">
         <v>41</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A57" s="113" t="s">
         <v>41</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A58" s="113" t="s">
         <v>41</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A59" s="100" t="s">
         <v>41</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A60" s="113" t="s">
         <v>41</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A61" s="113" t="s">
         <v>41</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A62" s="100" t="s">
         <v>41</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A63" s="113" t="s">
         <v>41</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A64" s="113" t="s">
         <v>41</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A65" s="100" t="s">
         <v>41</v>
       </c>
@@ -19371,7 +19371,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A66" s="113" t="s">
         <v>41</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A67" s="113" t="s">
         <v>41</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A68" s="125" t="s">
         <v>35</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A69" s="100" t="s">
         <v>45</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A70" s="113" t="s">
         <v>45</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A71" s="113" t="s">
         <v>45</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A72" s="100" t="s">
         <v>45</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A73" s="113" t="s">
         <v>45</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A74" s="113" t="s">
         <v>45</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A75" s="100" t="s">
         <v>45</v>
       </c>
@@ -22034,7 +22034,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A76" s="113" t="s">
         <v>45</v>
       </c>
@@ -22297,7 +22297,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A77" s="113" t="s">
         <v>45</v>
       </c>
@@ -22560,7 +22560,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A78" s="100" t="s">
         <v>45</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A79" s="113" t="s">
         <v>45</v>
       </c>
@@ -23086,7 +23086,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A80" s="113" t="s">
         <v>45</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A81" s="125" t="s">
         <v>35</v>
       </c>
@@ -23645,7 +23645,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A82" s="100" t="s">
         <v>45</v>
       </c>
@@ -23908,7 +23908,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="83" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A83" s="113" t="s">
         <v>45</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="84" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A84" s="113" t="s">
         <v>45</v>
       </c>
@@ -24434,7 +24434,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="85" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A85" s="100" t="s">
         <v>45</v>
       </c>
@@ -24697,7 +24697,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="86" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A86" s="113" t="s">
         <v>45</v>
       </c>
@@ -24960,7 +24960,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="87" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A87" s="113" t="s">
         <v>45</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="88" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A88" s="100" t="s">
         <v>45</v>
       </c>
@@ -25486,7 +25486,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="89" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A89" s="113" t="s">
         <v>45</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="90" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A90" s="113" t="s">
         <v>45</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="91" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A91" s="100" t="s">
         <v>45</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="92" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A92" s="113" t="s">
         <v>45</v>
       </c>
@@ -26538,7 +26538,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="93" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A93" s="113" t="s">
         <v>45</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="94" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A94" s="125" t="s">
         <v>35</v>
       </c>
@@ -27097,7 +27097,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="95" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A95" s="100" t="s">
         <v>45</v>
       </c>
@@ -27360,7 +27360,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="96" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A96" s="113" t="s">
         <v>45</v>
       </c>
@@ -27623,7 +27623,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="97" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A97" s="113" t="s">
         <v>45</v>
       </c>
@@ -27886,7 +27886,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="98" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A98" s="100" t="s">
         <v>45</v>
       </c>
@@ -28149,7 +28149,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="99" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A99" s="113" t="s">
         <v>45</v>
       </c>
@@ -28412,7 +28412,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="100" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A100" s="113" t="s">
         <v>45</v>
       </c>
@@ -28675,7 +28675,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="101" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A101" s="100" t="s">
         <v>45</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="102" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A102" s="113" t="s">
         <v>45</v>
       </c>
@@ -29201,7 +29201,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="103" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A103" s="113" t="s">
         <v>45</v>
       </c>
@@ -29464,7 +29464,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="104" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A104" s="100" t="s">
         <v>45</v>
       </c>
@@ -29727,7 +29727,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="105" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A105" s="113" t="s">
         <v>45</v>
       </c>
@@ -29990,7 +29990,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="106" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A106" s="113" t="s">
         <v>45</v>
       </c>
@@ -30253,7 +30253,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="107" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A107" s="125" t="s">
         <v>35</v>
       </c>
@@ -30549,7 +30549,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="108" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A108" s="100" t="s">
         <v>45</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="109" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A109" s="113" t="s">
         <v>45</v>
       </c>
@@ -31075,7 +31075,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="110" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A110" s="113" t="s">
         <v>45</v>
       </c>
@@ -31338,7 +31338,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="111" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A111" s="100" t="s">
         <v>45</v>
       </c>
@@ -31601,7 +31601,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="112" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A112" s="113" t="s">
         <v>45</v>
       </c>
@@ -31864,7 +31864,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="113" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A113" s="113" t="s">
         <v>45</v>
       </c>
@@ -32127,7 +32127,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="114" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A114" s="100" t="s">
         <v>45</v>
       </c>
@@ -32390,7 +32390,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="115" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A115" s="113" t="s">
         <v>45</v>
       </c>
@@ -32653,7 +32653,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="116" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A116" s="113" t="s">
         <v>45</v>
       </c>
@@ -32916,7 +32916,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="117" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A117" s="100" t="s">
         <v>45</v>
       </c>
@@ -33179,7 +33179,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="118" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A118" s="113" t="s">
         <v>45</v>
       </c>
@@ -33442,7 +33442,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="119" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A119" s="113" t="s">
         <v>45</v>
       </c>
@@ -33705,7 +33705,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="120" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A120" s="125" t="s">
         <v>35</v>
       </c>
@@ -34001,7 +34001,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="121" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A121" s="100" t="s">
         <v>45</v>
       </c>
@@ -34264,7 +34264,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="122" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A122" s="113" t="s">
         <v>45</v>
       </c>
@@ -34527,7 +34527,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="123" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A123" s="113" t="s">
         <v>45</v>
       </c>
@@ -34790,7 +34790,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="124" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A124" s="100" t="s">
         <v>45</v>
       </c>
@@ -35053,7 +35053,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="125" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A125" s="113" t="s">
         <v>45</v>
       </c>
@@ -35316,7 +35316,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="126" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A126" s="113" t="s">
         <v>45</v>
       </c>
@@ -35579,7 +35579,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="127" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A127" s="100" t="s">
         <v>45</v>
       </c>
@@ -35842,7 +35842,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="128" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A128" s="113" t="s">
         <v>45</v>
       </c>
@@ -36105,7 +36105,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="129" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A129" s="113" t="s">
         <v>45</v>
       </c>
@@ -36368,7 +36368,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="130" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A130" s="100" t="s">
         <v>45</v>
       </c>
@@ -36631,7 +36631,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="131" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A131" s="113" t="s">
         <v>45</v>
       </c>
@@ -36894,7 +36894,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="132" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A132" s="113" t="s">
         <v>45</v>
       </c>
@@ -37157,7 +37157,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="133" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A133" s="125" t="s">
         <v>35</v>
       </c>
@@ -37453,7 +37453,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="134" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A134" s="100" t="s">
         <v>45</v>
       </c>
@@ -37716,7 +37716,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="135" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A135" s="113" t="s">
         <v>45</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="136" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A136" s="113" t="s">
         <v>45</v>
       </c>
@@ -38242,7 +38242,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="137" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A137" s="100" t="s">
         <v>45</v>
       </c>
@@ -38505,7 +38505,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="138" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A138" s="113" t="s">
         <v>45</v>
       </c>
@@ -38768,7 +38768,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="139" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A139" s="113" t="s">
         <v>45</v>
       </c>
@@ -39031,7 +39031,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="140" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A140" s="100" t="s">
         <v>45</v>
       </c>
@@ -39294,7 +39294,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="141" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A141" s="113" t="s">
         <v>45</v>
       </c>
@@ -39557,7 +39557,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="142" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A142" s="113" t="s">
         <v>45</v>
       </c>
@@ -39820,7 +39820,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="143" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A143" s="100" t="s">
         <v>45</v>
       </c>
@@ -40083,7 +40083,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="144" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A144" s="113" t="s">
         <v>45</v>
       </c>
@@ -40346,7 +40346,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="145" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A145" s="113" t="s">
         <v>45</v>
       </c>
@@ -40609,7 +40609,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="146" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A146" s="125" t="s">
         <v>35</v>
       </c>
@@ -40905,7 +40905,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="147" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A147" s="100" t="s">
         <v>45</v>
       </c>
@@ -41168,7 +41168,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="148" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A148" s="113" t="s">
         <v>45</v>
       </c>
@@ -41431,7 +41431,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="149" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A149" s="113" t="s">
         <v>45</v>
       </c>
@@ -41694,7 +41694,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="150" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A150" s="100" t="s">
         <v>45</v>
       </c>
@@ -41957,7 +41957,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="151" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A151" s="113" t="s">
         <v>45</v>
       </c>
@@ -42220,7 +42220,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="152" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A152" s="113" t="s">
         <v>45</v>
       </c>
@@ -42483,7 +42483,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="153" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A153" s="100" t="s">
         <v>45</v>
       </c>
@@ -42746,7 +42746,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="154" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A154" s="113" t="s">
         <v>45</v>
       </c>
@@ -43009,7 +43009,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="155" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A155" s="113" t="s">
         <v>45</v>
       </c>
@@ -43272,7 +43272,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="156" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A156" s="100" t="s">
         <v>45</v>
       </c>
@@ -43535,7 +43535,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="157" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A157" s="113" t="s">
         <v>45</v>
       </c>
@@ -43798,7 +43798,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="158" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A158" s="113" t="s">
         <v>45</v>
       </c>
@@ -44061,7 +44061,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="159" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A159" s="125" t="s">
         <v>35</v>
       </c>
@@ -44357,7 +44357,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="160" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A160" s="100" t="s">
         <v>45</v>
       </c>
@@ -44620,7 +44620,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="161" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A161" s="113" t="s">
         <v>45</v>
       </c>
@@ -44883,7 +44883,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="162" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A162" s="113" t="s">
         <v>45</v>
       </c>
@@ -45146,7 +45146,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="163" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A163" s="100" t="s">
         <v>45</v>
       </c>
@@ -45409,7 +45409,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="164" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A164" s="113" t="s">
         <v>45</v>
       </c>
@@ -45672,7 +45672,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="165" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A165" s="113" t="s">
         <v>45</v>
       </c>
@@ -45935,7 +45935,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="166" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A166" s="100" t="s">
         <v>45</v>
       </c>
@@ -46198,7 +46198,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="167" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A167" s="113" t="s">
         <v>45</v>
       </c>
@@ -46461,7 +46461,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="168" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A168" s="113" t="s">
         <v>45</v>
       </c>
@@ -46724,7 +46724,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="169" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A169" s="100" t="s">
         <v>45</v>
       </c>
@@ -46987,7 +46987,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="170" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A170" s="113" t="s">
         <v>45</v>
       </c>
@@ -47250,7 +47250,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="171" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A171" s="113" t="s">
         <v>45</v>
       </c>
@@ -47513,7 +47513,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="172" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A172" s="125" t="s">
         <v>35</v>
       </c>
@@ -47809,7 +47809,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="173" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A173" s="100" t="s">
         <v>45</v>
       </c>
@@ -48072,7 +48072,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="174" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A174" s="113" t="s">
         <v>45</v>
       </c>
@@ -48335,7 +48335,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="175" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A175" s="113" t="s">
         <v>45</v>
       </c>
@@ -48598,7 +48598,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="176" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A176" s="125" t="s">
         <v>35</v>
       </c>
@@ -48894,7 +48894,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="177" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A177" s="100" t="s">
         <v>45</v>
       </c>
@@ -49157,7 +49157,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="178" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A178" s="113" t="s">
         <v>45</v>
       </c>
@@ -49420,7 +49420,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="179" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A179" s="113" t="s">
         <v>45</v>
       </c>
@@ -49683,7 +49683,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="180" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A180" s="125" t="s">
         <v>35</v>
       </c>
@@ -49979,7 +49979,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="181" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A181" s="100" t="s">
         <v>59</v>
       </c>
@@ -50242,7 +50242,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="182" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A182" s="113" t="s">
         <v>59</v>
       </c>
@@ -50505,7 +50505,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="183" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A183" s="113" t="s">
         <v>59</v>
       </c>
@@ -50768,7 +50768,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="184" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A184" s="100" t="s">
         <v>59</v>
       </c>
@@ -51031,7 +51031,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="185" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A185" s="113" t="s">
         <v>59</v>
       </c>
@@ -51294,7 +51294,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="186" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A186" s="113" t="s">
         <v>59</v>
       </c>
@@ -51557,7 +51557,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="187" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A187" s="100" t="s">
         <v>59</v>
       </c>
@@ -51820,7 +51820,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="188" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A188" s="113" t="s">
         <v>59</v>
       </c>
@@ -52083,7 +52083,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="189" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A189" s="113" t="s">
         <v>59</v>
       </c>
@@ -52346,7 +52346,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="190" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A190" s="100" t="s">
         <v>59</v>
       </c>
@@ -52609,7 +52609,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="191" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A191" s="113" t="s">
         <v>59</v>
       </c>
@@ -52872,7 +52872,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="192" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A192" s="113" t="s">
         <v>59</v>
       </c>
@@ -53135,7 +53135,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="193" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A193" s="100" t="s">
         <v>41</v>
       </c>
@@ -53398,7 +53398,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="194" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A194" s="113" t="s">
         <v>41</v>
       </c>
@@ -53661,7 +53661,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="195" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A195" s="113" t="s">
         <v>41</v>
       </c>
@@ -53924,7 +53924,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="196" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A196" s="125" t="s">
         <v>35</v>
       </c>
@@ -54220,7 +54220,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="197" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A197" s="100" t="s">
         <v>41</v>
       </c>
@@ -54483,7 +54483,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="198" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A198" s="113" t="s">
         <v>41</v>
       </c>
@@ -54746,7 +54746,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="199" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A199" s="113" t="s">
         <v>41</v>
       </c>
@@ -55009,7 +55009,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="200" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A200" s="100" t="s">
         <v>41</v>
       </c>
@@ -55272,7 +55272,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="201" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A201" s="113" t="s">
         <v>41</v>
       </c>
@@ -55535,7 +55535,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="202" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A202" s="113" t="s">
         <v>41</v>
       </c>
@@ -55798,7 +55798,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="203" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A203" s="100" t="s">
         <v>41</v>
       </c>
@@ -56061,7 +56061,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="204" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A204" s="113" t="s">
         <v>41</v>
       </c>
@@ -56324,7 +56324,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="205" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A205" s="113" t="s">
         <v>41</v>
       </c>
@@ -56587,7 +56587,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="206" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A206" s="100" t="s">
         <v>41</v>
       </c>
@@ -56850,7 +56850,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="207" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A207" s="113" t="s">
         <v>41</v>
       </c>
@@ -57113,7 +57113,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="208" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A208" s="113" t="s">
         <v>41</v>
       </c>
@@ -57376,7 +57376,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="209" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A209" s="125" t="s">
         <v>35</v>
       </c>
@@ -57648,7 +57648,7 @@
         <v>0</v>
       </c>
       <c r="BT209" s="35">
-        <f t="shared" ref="BT209:BY209" si="531">SUM(BT197:BT208)</f>
+        <f t="shared" ref="BT209:BX209" si="531">SUM(BT197:BT208)</f>
         <v>0</v>
       </c>
       <c r="BU209" s="36">
@@ -57672,7 +57672,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="210" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A210" s="100" t="s">
         <v>45</v>
       </c>
@@ -57935,7 +57935,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="211" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A211" s="125" t="s">
         <v>35</v>
       </c>
@@ -58231,7 +58231,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="212" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A212" s="100" t="s">
         <v>26</v>
       </c>
@@ -58290,11 +58290,11 @@
         <v>0</v>
       </c>
       <c r="S212" s="109">
-        <f>G253+H253+K253+N253+Q253</f>
+        <f>G212+H212+K212+N212+Q212</f>
         <v>0</v>
       </c>
       <c r="T212" s="109">
-        <f>I253+L253+O253+R253</f>
+        <f>I212+L212+O212+R212</f>
         <v>0</v>
       </c>
       <c r="U212" s="110">
@@ -58338,11 +58338,11 @@
         <v>0</v>
       </c>
       <c r="AG212" s="109">
-        <f>U253+V253+Y253+AB253+AE253</f>
+        <f>U212+V212+Y212+AB212+AE212</f>
         <v>0</v>
       </c>
       <c r="AH212" s="109">
-        <f>W253+Z253+AC253+AF253</f>
+        <f>W212+Z212+AC212+AF212</f>
         <v>0</v>
       </c>
       <c r="AI212" s="105">
@@ -58386,11 +58386,11 @@
         <v>0</v>
       </c>
       <c r="AU212" s="109">
-        <f>AI253+AJ253+AM253+AP253+AS253</f>
+        <f>AI212+AJ212+AM212+AP212+AS212</f>
         <v>0</v>
       </c>
       <c r="AV212" s="109">
-        <f>AK253+AN253+AQ253+AT253</f>
+        <f>AK212+AN212+AQ212+AT212</f>
         <v>0</v>
       </c>
       <c r="AW212" s="110">
@@ -58434,11 +58434,11 @@
         <v>0</v>
       </c>
       <c r="BI212" s="109">
-        <f>AW253+AX253+BA253+BD253+BG253</f>
+        <f>AW212+AX212+BA212+BD212+BG212</f>
         <v>0</v>
       </c>
       <c r="BJ212" s="109">
-        <f>AY253+BB253+BE253+BH253</f>
+        <f>AY212+BB212+BE212+BH212</f>
         <v>0</v>
       </c>
       <c r="BK212" s="105">
@@ -58482,11 +58482,11 @@
         <v>0</v>
       </c>
       <c r="BW212" s="109">
-        <f>BK253+BL253+BO253+BR253+BU253</f>
+        <f>BK212+BL212+BO212+BR212+BU212</f>
         <v>0</v>
       </c>
       <c r="BX212" s="109">
-        <f>BM253+BP253+BS253+BV253</f>
+        <f>BM212+BP212+BS212+BV212</f>
         <v>0</v>
       </c>
       <c r="BY212" s="98" t="str">
@@ -58494,7 +58494,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="213" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A213" s="125" t="s">
         <v>35</v>
       </c>
@@ -58790,7 +58790,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="214" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A214" s="100" t="s">
         <v>45</v>
       </c>
@@ -59053,7 +59053,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="215" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A215" s="113" t="s">
         <v>45</v>
       </c>
@@ -59316,7 +59316,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="216" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A216" s="113" t="s">
         <v>45</v>
       </c>
@@ -59579,7 +59579,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="217" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A217" s="100" t="s">
         <v>45</v>
       </c>
@@ -59842,7 +59842,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="218" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A218" s="113" t="s">
         <v>45</v>
       </c>
@@ -60105,7 +60105,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="219" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A219" s="113" t="s">
         <v>45</v>
       </c>
@@ -60368,7 +60368,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="220" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A220" s="100" t="s">
         <v>45</v>
       </c>
@@ -60631,7 +60631,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="221" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A221" s="113" t="s">
         <v>45</v>
       </c>
@@ -60894,7 +60894,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="222" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A222" s="113" t="s">
         <v>45</v>
       </c>
@@ -61157,7 +61157,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="223" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A223" s="100" t="s">
         <v>45</v>
       </c>
@@ -61420,7 +61420,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="224" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A224" s="113" t="s">
         <v>45</v>
       </c>
@@ -61683,7 +61683,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="225" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A225" s="113" t="s">
         <v>45</v>
       </c>
@@ -61946,7 +61946,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="226" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A226" s="125" t="s">
         <v>35</v>
       </c>
@@ -62242,7 +62242,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="227" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A227" s="100" t="s">
         <v>41</v>
       </c>
@@ -62505,7 +62505,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="228" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A228" s="113" t="s">
         <v>41</v>
       </c>
@@ -62768,7 +62768,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="229" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A229" s="113" t="s">
         <v>41</v>
       </c>
@@ -63031,7 +63031,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="230" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A230" s="100" t="s">
         <v>41</v>
       </c>
@@ -63294,7 +63294,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="231" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A231" s="113" t="s">
         <v>41</v>
       </c>
@@ -63557,7 +63557,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="232" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A232" s="113" t="s">
         <v>41</v>
       </c>
@@ -63820,7 +63820,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="233" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A233" s="100" t="s">
         <v>41</v>
       </c>
@@ -64083,7 +64083,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="234" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A234" s="113" t="s">
         <v>41</v>
       </c>
@@ -64346,7 +64346,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="235" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A235" s="113" t="s">
         <v>41</v>
       </c>
@@ -64609,7 +64609,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="236" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A236" s="125" t="s">
         <v>35</v>
       </c>
@@ -64869,7 +64869,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="237" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A237" s="100" t="s">
         <v>41</v>
       </c>
@@ -65132,7 +65132,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="238" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A238" s="113" t="s">
         <v>41</v>
       </c>
@@ -65395,7 +65395,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="239" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A239" s="113" t="s">
         <v>41</v>
       </c>
@@ -65658,7 +65658,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="240" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A240" s="100" t="s">
         <v>41</v>
       </c>
@@ -65921,7 +65921,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="241" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A241" s="113" t="s">
         <v>41</v>
       </c>
@@ -66184,7 +66184,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="242" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A242" s="113" t="s">
         <v>41</v>
       </c>
@@ -66447,7 +66447,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="243" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A243" s="100" t="s">
         <v>41</v>
       </c>
@@ -66710,7 +66710,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="244" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A244" s="113" t="s">
         <v>41</v>
       </c>
@@ -66973,7 +66973,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="245" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A245" s="113" t="s">
         <v>41</v>
       </c>
@@ -67236,7 +67236,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="246" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A246" s="125" t="s">
         <v>35</v>
       </c>
@@ -67496,7 +67496,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="247" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A247" s="100" t="s">
         <v>45</v>
       </c>
@@ -67759,7 +67759,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="248" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A248" s="113" t="s">
         <v>45</v>
       </c>
@@ -68022,7 +68022,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="249" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A249" s="113" t="s">
         <v>45</v>
       </c>
@@ -68285,7 +68285,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="250" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A250" s="125" t="s">
         <v>35</v>
       </c>
@@ -68581,7 +68581,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="251" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A251" s="100" t="s">
         <v>45</v>
       </c>
@@ -68844,7 +68844,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="252" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A252" s="113" t="s">
         <v>45</v>
       </c>
@@ -69107,7 +69107,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="253" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A253" s="113" t="s">
         <v>45</v>
       </c>
@@ -69370,7 +69370,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="254" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A254" s="125" t="s">
         <v>35</v>
       </c>
@@ -69666,7 +69666,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="255" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A255" s="100" t="s">
         <v>26</v>
       </c>
@@ -69929,7 +69929,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="256" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A256" s="113" t="s">
         <v>26</v>
       </c>
@@ -70192,7 +70192,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="257" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A257" s="113" t="s">
         <v>26</v>
       </c>
@@ -70455,7 +70455,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="258" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A258" s="100" t="s">
         <v>26</v>
       </c>
@@ -70718,7 +70718,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="259" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A259" s="113" t="s">
         <v>26</v>
       </c>
@@ -70981,7 +70981,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="260" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A260" s="113" t="s">
         <v>26</v>
       </c>
@@ -71244,7 +71244,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="261" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A261" s="100" t="s">
         <v>26</v>
       </c>
@@ -71507,7 +71507,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="262" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A262" s="113" t="s">
         <v>26</v>
       </c>
@@ -71770,7 +71770,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="263" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A263" s="113" t="s">
         <v>26</v>
       </c>
@@ -72033,7 +72033,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="264" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A264" s="125" t="s">
         <v>35</v>
       </c>
@@ -72329,7 +72329,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="265" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A265" s="116"/>
       <c r="B265" s="141"/>
       <c r="C265" s="116"/>
@@ -72407,7 +72407,7 @@
       <c r="BW265" s="116"/>
       <c r="BX265" s="116"/>
     </row>
-    <row r="266" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A266" s="143" t="s">
         <v>35</v>
       </c>
@@ -72701,7 +72701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A267" s="148" t="s">
         <v>35</v>
       </c>
@@ -72995,7 +72995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A268" s="151" t="s">
         <v>45</v>
       </c>
@@ -73289,7 +73289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A269" s="151" t="s">
         <v>26</v>
       </c>
@@ -73583,7 +73583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A270" s="125" t="s">
         <v>35</v>
       </c>
@@ -73877,7 +73877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A271" s="151" t="s">
         <v>45</v>
       </c>
@@ -74171,7 +74171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A272" s="151" t="s">
         <v>26</v>
       </c>
@@ -74465,7 +74465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A273" s="125" t="s">
         <v>35</v>
       </c>
@@ -74759,7 +74759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A274" s="151" t="s">
         <v>45</v>
       </c>
@@ -75053,7 +75053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A275" s="151" t="s">
         <v>59</v>
       </c>
@@ -75347,7 +75347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A276" s="125" t="s">
         <v>35</v>
       </c>
@@ -75641,7 +75641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A277" s="151" t="s">
         <v>41</v>
       </c>
@@ -75935,7 +75935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A278" s="125" t="s">
         <v>35</v>
       </c>
@@ -76229,7 +76229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A279" s="116"/>
       <c r="B279" s="164"/>
       <c r="C279" s="165"/>
@@ -76307,7 +76307,7 @@
       <c r="BW279" s="116"/>
       <c r="BX279" s="116"/>
     </row>
-    <row r="280" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A280" s="166" t="s">
         <v>45</v>
       </c>
@@ -76601,7 +76601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A281" s="151" t="s">
         <v>26</v>
       </c>
@@ -76895,7 +76895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A282" s="166" t="s">
         <v>45</v>
       </c>
@@ -77189,7 +77189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A283" s="151" t="s">
         <v>26</v>
       </c>
@@ -77483,7 +77483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A284" s="125" t="s">
         <v>35</v>
       </c>
@@ -77777,7 +77777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A285" s="116"/>
       <c r="B285" s="141"/>
       <c r="C285" s="116"/>
@@ -77855,7 +77855,7 @@
       <c r="BW285" s="116"/>
       <c r="BX285" s="116"/>
     </row>
-    <row r="286" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A286" s="166" t="s">
         <v>45</v>
       </c>
@@ -78149,7 +78149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A287" s="151" t="s">
         <v>26</v>
       </c>
@@ -78443,7 +78443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A288" s="166" t="s">
         <v>45</v>
       </c>
@@ -78737,7 +78737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A289" s="172" t="s">
         <v>26</v>
       </c>
@@ -79031,7 +79031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A290" s="125" t="s">
         <v>35</v>
       </c>
@@ -79325,7 +79325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A291" s="177" t="s">
         <v>45</v>
       </c>
@@ -79619,7 +79619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A292" s="125" t="s">
         <v>35</v>
       </c>
@@ -79913,7 +79913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A293" s="166" t="s">
         <v>45</v>
       </c>
@@ -80207,7 +80207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A294" s="151" t="s">
         <v>26</v>
       </c>
@@ -80501,7 +80501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A295" s="125" t="s">
         <v>35</v>
       </c>
@@ -80793,7 +80793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A296" s="125" t="s">
         <v>35</v>
       </c>
@@ -81087,7 +81087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A297" s="125" t="s">
         <v>35</v>
       </c>
@@ -81381,7 +81381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A298" s="125" t="s">
         <v>35</v>
       </c>
@@ -81675,7 +81675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A300" s="183"/>
       <c r="B300" s="184"/>
       <c r="C300" s="183"/>
@@ -81754,7 +81754,7 @@
       <c r="BW300" s="183"/>
       <c r="BX300" s="183"/>
     </row>
-    <row r="301" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A301" s="183"/>
       <c r="B301" s="184"/>
       <c r="C301" s="183"/>
@@ -82004,7 +82004,7 @@
       <c r="BW301" s="183"/>
       <c r="BX301" s="183"/>
     </row>
-    <row r="302" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A302" s="183"/>
       <c r="B302" s="184"/>
       <c r="C302" s="183"/>
@@ -82254,7 +82254,7 @@
       <c r="BW302" s="183"/>
       <c r="BX302" s="183"/>
     </row>
-    <row r="303" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A303" s="183"/>
       <c r="B303" s="184"/>
       <c r="C303" s="183"/>
@@ -82504,7 +82504,7 @@
       <c r="BW303" s="183"/>
       <c r="BX303" s="183"/>
     </row>
-    <row r="304" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A304" s="183"/>
       <c r="B304" s="184"/>
       <c r="C304" s="183"/>
@@ -82755,6 +82755,17 @@
   </sheetData>
   <autoFilter ref="BY1:BY304"/>
   <mergeCells count="27">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="BF2:BH2"/>
     <mergeCell ref="BN2:BP2"/>
     <mergeCell ref="AW1:BJ1"/>
@@ -82771,17 +82782,6 @@
     <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="BT2:BV2"/>
     <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -82796,23 +82796,23 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="197" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="197" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="197" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="197" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="197" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="197" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="197" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="197" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="197" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" style="197" customWidth="1"/>
     <col min="6" max="7" width="17" style="197" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="197" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="197" customWidth="1"/>
     <col min="9" max="10" width="17" style="197" customWidth="1"/>
     <col min="11" max="11" width="41" style="197" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="197" customWidth="1"/>
-    <col min="14" max="1675" width="9.140625" style="197" hidden="1" customWidth="1"/>
-    <col min="1676" max="16384" width="9.140625" style="197" hidden="1"/>
+    <col min="12" max="13" width="9.109375" style="197" customWidth="1"/>
+    <col min="14" max="1675" width="9.109375" style="197" hidden="1" customWidth="1"/>
+    <col min="1676" max="16384" width="9.109375" style="197" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="71"/>
       <c r="B1" s="56"/>
       <c r="C1" s="75"/>
@@ -82825,7 +82825,7 @@
       <c r="J1" s="90"/>
       <c r="K1" s="90"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="71"/>
       <c r="B2" s="56"/>
       <c r="C2" s="75"/>
@@ -82838,7 +82838,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="71"/>
       <c r="B3" s="56"/>
       <c r="C3" s="75"/>
@@ -82851,187 +82851,187 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71"/>
       <c r="B4" s="56"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="207"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="217"/>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="214" t="str">
+      <c r="C5" s="218" t="str">
         <f>IF(N5=0,"PREVIA DESCARGA COMPLEXO SANTOS","FECHAMENTO RP COMPLEXO SANTOS")</f>
         <v>PREVIA DESCARGA COMPLEXO SANTOS</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="215"/>
-      <c r="K5" s="216"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="219"/>
+      <c r="J5" s="219"/>
+      <c r="K5" s="220"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="71"/>
       <c r="B6" s="77"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="222" t="s">
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="225" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="223"/>
-      <c r="H6" s="218" t="s">
+      <c r="G6" s="226"/>
+      <c r="H6" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="219"/>
-      <c r="J6" s="220" t="s">
+      <c r="I6" s="222"/>
+      <c r="J6" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="221"/>
+      <c r="K6" s="224"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="71"/>
       <c r="B7" s="56">
         <v>1</v>
       </c>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="214" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="217">
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="207">
         <f>DETALHE!S266</f>
         <v>0</v>
       </c>
-      <c r="G7" s="213"/>
-      <c r="H7" s="217">
+      <c r="G7" s="208"/>
+      <c r="H7" s="207">
         <f>DETALHE!T266</f>
         <v>0</v>
       </c>
-      <c r="I7" s="213"/>
-      <c r="J7" s="208">
+      <c r="I7" s="208"/>
+      <c r="J7" s="212">
         <f>DETALHE!U266</f>
         <v>0</v>
       </c>
-      <c r="K7" s="209"/>
+      <c r="K7" s="213"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71"/>
       <c r="B8" s="56">
         <v>0</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="214" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="217">
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="207">
         <f>DETALHE!AG266</f>
         <v>0</v>
       </c>
-      <c r="G8" s="213"/>
-      <c r="H8" s="217">
+      <c r="G8" s="208"/>
+      <c r="H8" s="207">
         <f>DETALHE!AH266</f>
         <v>0</v>
       </c>
-      <c r="I8" s="213"/>
-      <c r="J8" s="208">
+      <c r="I8" s="208"/>
+      <c r="J8" s="212">
         <f>DETALHE!AI266</f>
         <v>0</v>
       </c>
-      <c r="K8" s="209"/>
+      <c r="K8" s="213"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71"/>
       <c r="B9" s="56">
         <v>0</v>
       </c>
-      <c r="C9" s="212" t="s">
+      <c r="C9" s="214" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="217">
+      <c r="D9" s="208"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="207">
         <f>DETALHE!BB266</f>
         <v>0</v>
       </c>
-      <c r="G9" s="213"/>
-      <c r="H9" s="217">
+      <c r="G9" s="208"/>
+      <c r="H9" s="207">
         <f>DETALHE!BC266</f>
         <v>0</v>
       </c>
-      <c r="I9" s="213"/>
-      <c r="J9" s="208">
+      <c r="I9" s="208"/>
+      <c r="J9" s="212">
         <f>DETALHE!BD266</f>
         <v>0</v>
       </c>
-      <c r="K9" s="209"/>
+      <c r="K9" s="213"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="B10" s="56">
         <v>1</v>
       </c>
-      <c r="C10" s="212" t="s">
+      <c r="C10" s="214" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="213"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="217">
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="207">
         <f>DETALHE!BP266</f>
         <v>0</v>
       </c>
-      <c r="G10" s="213"/>
-      <c r="H10" s="217">
+      <c r="G10" s="208"/>
+      <c r="H10" s="207">
         <f>DETALHE!BQ266</f>
         <v>0</v>
       </c>
-      <c r="I10" s="213"/>
-      <c r="J10" s="208">
+      <c r="I10" s="208"/>
+      <c r="J10" s="212">
         <f>DETALHE!BR266</f>
         <v>0</v>
       </c>
-      <c r="K10" s="209"/>
+      <c r="K10" s="213"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="71"/>
       <c r="B11" s="56">
         <v>0</v>
       </c>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="217">
+      <c r="D11" s="208"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="207">
         <f>DETALHE!CD266</f>
         <v>0</v>
       </c>
-      <c r="G11" s="213"/>
-      <c r="H11" s="217">
+      <c r="G11" s="208"/>
+      <c r="H11" s="207">
         <f>DETALHE!CE266</f>
         <v>0</v>
       </c>
-      <c r="I11" s="213"/>
-      <c r="J11" s="208">
+      <c r="I11" s="208"/>
+      <c r="J11" s="212">
         <f>DETALHE!CF266</f>
         <v>0</v>
       </c>
-      <c r="K11" s="209"/>
+      <c r="K11" s="213"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="71"/>
       <c r="B12" s="56">
         <v>0</v>
@@ -83046,7 +83046,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="71"/>
       <c r="B13" s="56">
         <v>1</v>
@@ -83079,12 +83079,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="71"/>
       <c r="B14" s="56">
         <v>1</v>
       </c>
-      <c r="C14" s="210" t="s">
+      <c r="C14" s="205" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="67" t="s">
@@ -83118,12 +83118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="71"/>
       <c r="B15" s="56">
         <v>1</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="65" t="s">
         <v>116</v>
       </c>
@@ -83155,15 +83155,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="71"/>
       <c r="B16" s="56">
         <v>1</v>
       </c>
-      <c r="C16" s="224" t="s">
+      <c r="C16" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="225"/>
+      <c r="D16" s="211"/>
       <c r="E16" s="62">
         <f>SUM(E14:E15)</f>
         <v>0</v>
@@ -83192,12 +83192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="71"/>
       <c r="B17" s="56">
         <v>1</v>
       </c>
-      <c r="C17" s="210" t="s">
+      <c r="C17" s="205" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="67" t="s">
@@ -83231,12 +83231,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71"/>
       <c r="B18" s="56">
         <v>1</v>
       </c>
-      <c r="C18" s="211"/>
+      <c r="C18" s="206"/>
       <c r="D18" s="65" t="s">
         <v>116</v>
       </c>
@@ -83268,15 +83268,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="71"/>
       <c r="B19" s="56">
         <v>1</v>
       </c>
-      <c r="C19" s="224" t="s">
+      <c r="C19" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="225"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="62">
         <f>SUM(E17:E18)</f>
         <v>0</v>
@@ -83305,12 +83305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="71"/>
       <c r="B20" s="56">
         <v>1</v>
       </c>
-      <c r="C20" s="226" t="s">
+      <c r="C20" s="209" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="67" t="s">
@@ -83344,12 +83344,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="71"/>
       <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="206"/>
       <c r="D21" s="65" t="s">
         <v>116</v>
       </c>
@@ -83381,15 +83381,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="71"/>
       <c r="B22" s="56">
         <v>1</v>
       </c>
-      <c r="C22" s="224" t="s">
+      <c r="C22" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="225"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="62">
         <f>SUM(E20:E21)</f>
         <v>0</v>
@@ -83418,7 +83418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="71"/>
       <c r="B23" s="56">
         <v>1</v>
@@ -83457,7 +83457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="71"/>
       <c r="B24" s="56">
         <v>1</v>
@@ -83472,7 +83472,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71"/>
       <c r="B25" s="56">
         <v>1</v>
@@ -83505,12 +83505,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="71"/>
       <c r="B26" s="56">
         <v>1</v>
       </c>
-      <c r="C26" s="210" t="s">
+      <c r="C26" s="205" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="67" t="s">
@@ -83544,12 +83544,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="71"/>
       <c r="B27" s="56">
         <v>1</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="206"/>
       <c r="D27" s="65" t="s">
         <v>116</v>
       </c>
@@ -83581,15 +83581,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="71"/>
       <c r="B28" s="56">
         <v>1</v>
       </c>
-      <c r="C28" s="224" t="s">
+      <c r="C28" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="225"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="62">
         <f>SUM(E26:E27)</f>
         <v>0</v>
@@ -83618,12 +83618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="71"/>
       <c r="B29" s="56">
         <v>1</v>
       </c>
-      <c r="C29" s="210" t="s">
+      <c r="C29" s="205" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="67" t="s">
@@ -83657,12 +83657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="71"/>
       <c r="B30" s="56">
         <v>1</v>
       </c>
-      <c r="C30" s="211"/>
+      <c r="C30" s="206"/>
       <c r="D30" s="65" t="s">
         <v>116</v>
       </c>
@@ -83694,15 +83694,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="71"/>
       <c r="B31" s="56">
         <v>1</v>
       </c>
-      <c r="C31" s="224" t="s">
+      <c r="C31" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="225"/>
+      <c r="D31" s="211"/>
       <c r="E31" s="62">
         <f>SUM(E29:E30)</f>
         <v>0</v>
@@ -83731,12 +83731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="71"/>
       <c r="B32" s="56">
         <v>1</v>
       </c>
-      <c r="C32" s="226" t="s">
+      <c r="C32" s="209" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="67" t="s">
@@ -83770,12 +83770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="71"/>
       <c r="B33" s="56">
         <v>1</v>
       </c>
-      <c r="C33" s="211"/>
+      <c r="C33" s="206"/>
       <c r="D33" s="65" t="s">
         <v>116</v>
       </c>
@@ -83807,15 +83807,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="71"/>
       <c r="B34" s="56">
         <v>1</v>
       </c>
-      <c r="C34" s="224" t="s">
+      <c r="C34" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="225"/>
+      <c r="D34" s="211"/>
       <c r="E34" s="62">
         <f>SUM(E32:E33)</f>
         <v>0</v>
@@ -83844,7 +83844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="71"/>
       <c r="B35" s="56">
         <v>1</v>
@@ -83883,7 +83883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="71"/>
       <c r="B36" s="56">
         <v>1</v>
@@ -83898,7 +83898,7 @@
       <c r="J36" s="78"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="71"/>
       <c r="B37" s="56">
         <v>1</v>
@@ -83931,12 +83931,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="71"/>
       <c r="B38" s="56">
         <v>1</v>
       </c>
-      <c r="C38" s="210" t="s">
+      <c r="C38" s="205" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="67" t="s">
@@ -83970,12 +83970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="71"/>
       <c r="B39" s="56">
         <v>1</v>
       </c>
-      <c r="C39" s="211"/>
+      <c r="C39" s="206"/>
       <c r="D39" s="65" t="s">
         <v>116</v>
       </c>
@@ -84007,15 +84007,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="71"/>
       <c r="B40" s="56">
         <v>1</v>
       </c>
-      <c r="C40" s="224" t="s">
+      <c r="C40" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="225"/>
+      <c r="D40" s="211"/>
       <c r="E40" s="62">
         <f>SUM(E38:E39)</f>
         <v>0</v>
@@ -84044,12 +84044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="71"/>
       <c r="B41" s="56">
         <v>1</v>
       </c>
-      <c r="C41" s="210" t="s">
+      <c r="C41" s="205" t="s">
         <v>31</v>
       </c>
       <c r="D41" s="67" t="s">
@@ -84083,12 +84083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="71"/>
       <c r="B42" s="56">
         <v>1</v>
       </c>
-      <c r="C42" s="211"/>
+      <c r="C42" s="206"/>
       <c r="D42" s="65" t="s">
         <v>116</v>
       </c>
@@ -84120,15 +84120,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="71"/>
       <c r="B43" s="56">
         <v>1</v>
       </c>
-      <c r="C43" s="224" t="s">
+      <c r="C43" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="225"/>
+      <c r="D43" s="211"/>
       <c r="E43" s="62">
         <f>SUM(E41:E42)</f>
         <v>0</v>
@@ -84157,12 +84157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="71"/>
       <c r="B44" s="56">
         <v>1</v>
       </c>
-      <c r="C44" s="226" t="s">
+      <c r="C44" s="209" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="67" t="s">
@@ -84196,12 +84196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="71"/>
       <c r="B45" s="56">
         <v>1</v>
       </c>
-      <c r="C45" s="211"/>
+      <c r="C45" s="206"/>
       <c r="D45" s="65" t="s">
         <v>116</v>
       </c>
@@ -84233,15 +84233,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="71"/>
       <c r="B46" s="56">
         <v>1</v>
       </c>
-      <c r="C46" s="224" t="s">
+      <c r="C46" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="225"/>
+      <c r="D46" s="211"/>
       <c r="E46" s="62">
         <f>SUM(E44:E45)</f>
         <v>0</v>
@@ -84270,7 +84270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="71"/>
       <c r="B47" s="72">
         <v>1</v>
@@ -84309,7 +84309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="71"/>
       <c r="B48" s="56">
         <v>1</v>
@@ -84324,7 +84324,7 @@
       <c r="J48" s="90"/>
       <c r="K48" s="90"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="57"/>
       <c r="B49" s="90"/>
       <c r="C49" s="70" t="s">
@@ -84355,12 +84355,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="57"/>
       <c r="B50" s="56">
         <v>1</v>
       </c>
-      <c r="C50" s="210" t="s">
+      <c r="C50" s="205" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="67" t="s">
@@ -84394,12 +84394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="57"/>
       <c r="B51" s="56">
         <v>1</v>
       </c>
-      <c r="C51" s="211"/>
+      <c r="C51" s="206"/>
       <c r="D51" s="65" t="s">
         <v>116</v>
       </c>
@@ -84431,15 +84431,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="57"/>
       <c r="B52" s="56">
         <v>1</v>
       </c>
-      <c r="C52" s="224" t="s">
+      <c r="C52" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="225"/>
+      <c r="D52" s="211"/>
       <c r="E52" s="62">
         <f>SUM(E50:E51)</f>
         <v>0</v>
@@ -84468,12 +84468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="57"/>
       <c r="B53" s="56">
         <v>1</v>
       </c>
-      <c r="C53" s="210" t="s">
+      <c r="C53" s="205" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="67" t="s">
@@ -84507,12 +84507,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="71"/>
       <c r="B54" s="56">
         <v>1</v>
       </c>
-      <c r="C54" s="211"/>
+      <c r="C54" s="206"/>
       <c r="D54" s="65" t="s">
         <v>116</v>
       </c>
@@ -84544,15 +84544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="71"/>
       <c r="B55" s="56">
         <v>1</v>
       </c>
-      <c r="C55" s="224" t="s">
+      <c r="C55" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="225"/>
+      <c r="D55" s="211"/>
       <c r="E55" s="62">
         <f>SUM(E53:E54)</f>
         <v>0</v>
@@ -84581,12 +84581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="71"/>
       <c r="B56" s="56">
         <v>1</v>
       </c>
-      <c r="C56" s="226" t="s">
+      <c r="C56" s="209" t="s">
         <v>32</v>
       </c>
       <c r="D56" s="67" t="s">
@@ -84620,12 +84620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="71"/>
       <c r="B57" s="56">
         <v>1</v>
       </c>
-      <c r="C57" s="211"/>
+      <c r="C57" s="206"/>
       <c r="D57" s="65" t="s">
         <v>116</v>
       </c>
@@ -84657,15 +84657,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="71"/>
       <c r="B58" s="56">
         <v>1</v>
       </c>
-      <c r="C58" s="224" t="s">
+      <c r="C58" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="225"/>
+      <c r="D58" s="211"/>
       <c r="E58" s="62">
         <f>SUM(E56:E57)</f>
         <v>0</v>
@@ -84694,7 +84694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="71"/>
       <c r="B59" s="56">
         <v>1</v>
@@ -84733,7 +84733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="71"/>
       <c r="B60" s="56">
         <v>0</v>
@@ -84748,7 +84748,7 @@
       <c r="J60" s="90"/>
       <c r="K60" s="90"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="57"/>
       <c r="B61" s="56">
         <v>0</v>
@@ -84781,12 +84781,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="57"/>
       <c r="B62" s="56">
         <v>0</v>
       </c>
-      <c r="C62" s="210" t="s">
+      <c r="C62" s="205" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="67" t="s">
@@ -84820,12 +84820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="57"/>
       <c r="B63" s="56">
         <v>0</v>
       </c>
-      <c r="C63" s="211"/>
+      <c r="C63" s="206"/>
       <c r="D63" s="65" t="s">
         <v>116</v>
       </c>
@@ -84857,13 +84857,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="57"/>
       <c r="B64" s="56"/>
-      <c r="C64" s="224" t="s">
+      <c r="C64" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="225"/>
+      <c r="D64" s="211"/>
       <c r="E64" s="62">
         <f>SUM(E62:E63)</f>
         <v>0</v>
@@ -84892,10 +84892,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="57"/>
       <c r="B65" s="56"/>
-      <c r="C65" s="210" t="s">
+      <c r="C65" s="205" t="s">
         <v>31</v>
       </c>
       <c r="D65" s="67" t="s">
@@ -84929,10 +84929,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="57"/>
       <c r="B66" s="56"/>
-      <c r="C66" s="211"/>
+      <c r="C66" s="206"/>
       <c r="D66" s="65" t="s">
         <v>116</v>
       </c>
@@ -84964,13 +84964,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="57"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="224" t="s">
+      <c r="C67" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="225"/>
+      <c r="D67" s="211"/>
       <c r="E67" s="62">
         <f>SUM(E65:E66)</f>
         <v>0</v>
@@ -84999,10 +84999,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="57"/>
       <c r="B68" s="56"/>
-      <c r="C68" s="226" t="s">
+      <c r="C68" s="209" t="s">
         <v>32</v>
       </c>
       <c r="D68" s="67" t="s">
@@ -85036,10 +85036,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="57"/>
       <c r="B69" s="56"/>
-      <c r="C69" s="211"/>
+      <c r="C69" s="206"/>
       <c r="D69" s="65" t="s">
         <v>116</v>
       </c>
@@ -85071,13 +85071,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="57"/>
       <c r="B70" s="56"/>
-      <c r="C70" s="224" t="s">
+      <c r="C70" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="225"/>
+      <c r="D70" s="211"/>
       <c r="E70" s="62">
         <f>SUM(E68:E69)</f>
         <v>0</v>
@@ -85106,7 +85106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="57"/>
       <c r="B71" s="56"/>
       <c r="C71" s="60" t="s">
@@ -85143,7 +85143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="57"/>
       <c r="B72" s="56"/>
       <c r="C72" s="55"/>
@@ -85158,6 +85158,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="C32:C33"/>
@@ -85174,46 +85214,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>

--- a/previsao_trens/src/DICIONARIOS/MODELO_RELATORIO_DETALHE.xlsx
+++ b/previsao_trens/src/DICIONARIOS/MODELO_RELATORIO_DETALHE.xlsx
@@ -2143,38 +2143,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="60" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2187,6 +2180,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink 3" xfId="1"/>
@@ -2480,23 +2480,23 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="99" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="99" customWidth="1"/>
     <col min="2" max="2" width="19" style="194" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="99" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="99" customWidth="1"/>
-    <col min="7" max="76" width="4.6640625" style="99" customWidth="1"/>
-    <col min="77" max="77" width="9.109375" style="98" customWidth="1"/>
-    <col min="78" max="1168" width="9.109375" style="99" customWidth="1"/>
-    <col min="1169" max="16384" width="9.109375" style="99"/>
+    <col min="3" max="4" width="8.7109375" style="99" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="99" customWidth="1"/>
+    <col min="7" max="76" width="4.7109375" style="99" customWidth="1"/>
+    <col min="77" max="77" width="9.140625" style="98" customWidth="1"/>
+    <col min="78" max="1168" width="9.140625" style="99" customWidth="1"/>
+    <col min="1169" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="95">
         <f ca="1">TODAY()</f>
-        <v>45518</v>
+        <v>45530</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2583,7 +2583,7 @@
       <c r="BW1" s="203"/>
       <c r="BX1" s="204"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="96"/>
       <c r="C2" s="11"/>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="BX2" s="200"/>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>26</v>
       </c>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="BZ4" s="98"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="113" t="s">
         <v>26</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="113" t="s">
         <v>26</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
         <v>26</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="113" t="s">
         <v>26</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
         <v>26</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
         <v>26</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" s="113" t="s">
         <v>26</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="113" t="s">
         <v>26</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" s="125" t="s">
         <v>35</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" s="100" t="s">
         <v>26</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" s="113" t="s">
         <v>26</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="113" t="s">
         <v>26</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17" s="100" t="s">
         <v>26</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18" s="113" t="s">
         <v>26</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A19" s="113" t="s">
         <v>26</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A20" s="100" t="s">
         <v>26</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21" s="113" t="s">
         <v>26</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A22" s="113" t="s">
         <v>26</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23" s="125" t="s">
         <v>35</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>26</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25" s="113" t="s">
         <v>26</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26" s="113" t="s">
         <v>26</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A27" s="100" t="s">
         <v>26</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A28" s="113" t="s">
         <v>26</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A29" s="113" t="s">
         <v>26</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A30" s="100" t="s">
         <v>26</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A31" s="113" t="s">
         <v>26</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A32" s="113" t="s">
         <v>26</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A33" s="100" t="s">
         <v>26</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A34" s="113" t="s">
         <v>26</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35" s="113" t="s">
         <v>26</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36" s="125" t="s">
         <v>35</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37" s="100" t="s">
         <v>26</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38" s="113" t="s">
         <v>26</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A39" s="113" t="s">
         <v>26</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40" s="100" t="s">
         <v>26</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41" s="113" t="s">
         <v>26</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42" s="113" t="s">
         <v>26</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A43" s="100" t="s">
         <v>26</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44" s="113" t="s">
         <v>26</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A45" s="113" t="s">
         <v>26</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A46" s="125" t="s">
         <v>35</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A47" s="100" t="s">
         <v>41</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A48" s="113" t="s">
         <v>41</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A49" s="113" t="s">
         <v>41</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A50" s="100" t="s">
         <v>43</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A51" s="113" t="s">
         <v>44</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A52" s="113" t="s">
         <v>44</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A53" s="100" t="s">
         <v>43</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A54" s="113" t="s">
         <v>43</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A55" s="113" t="s">
         <v>43</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A56" s="100" t="s">
         <v>41</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A57" s="113" t="s">
         <v>41</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A58" s="113" t="s">
         <v>41</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A59" s="100" t="s">
         <v>41</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A60" s="113" t="s">
         <v>41</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A61" s="113" t="s">
         <v>41</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A62" s="100" t="s">
         <v>41</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A63" s="113" t="s">
         <v>41</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A64" s="113" t="s">
         <v>41</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A65" s="100" t="s">
         <v>41</v>
       </c>
@@ -19371,7 +19371,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A66" s="113" t="s">
         <v>41</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A67" s="113" t="s">
         <v>41</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A68" s="125" t="s">
         <v>35</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A69" s="100" t="s">
         <v>45</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A70" s="113" t="s">
         <v>45</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A71" s="113" t="s">
         <v>45</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A72" s="100" t="s">
         <v>45</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A73" s="113" t="s">
         <v>45</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A74" s="113" t="s">
         <v>45</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A75" s="100" t="s">
         <v>45</v>
       </c>
@@ -22034,7 +22034,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A76" s="113" t="s">
         <v>45</v>
       </c>
@@ -22297,7 +22297,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A77" s="113" t="s">
         <v>45</v>
       </c>
@@ -22560,7 +22560,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A78" s="100" t="s">
         <v>45</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A79" s="113" t="s">
         <v>45</v>
       </c>
@@ -23086,7 +23086,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A80" s="113" t="s">
         <v>45</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A81" s="125" t="s">
         <v>35</v>
       </c>
@@ -23645,7 +23645,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A82" s="100" t="s">
         <v>45</v>
       </c>
@@ -23908,7 +23908,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="83" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A83" s="113" t="s">
         <v>45</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="84" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A84" s="113" t="s">
         <v>45</v>
       </c>
@@ -24434,7 +24434,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="85" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A85" s="100" t="s">
         <v>45</v>
       </c>
@@ -24697,7 +24697,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="86" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A86" s="113" t="s">
         <v>45</v>
       </c>
@@ -24960,7 +24960,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="87" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A87" s="113" t="s">
         <v>45</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="88" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A88" s="100" t="s">
         <v>45</v>
       </c>
@@ -25486,7 +25486,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="89" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A89" s="113" t="s">
         <v>45</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="90" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A90" s="113" t="s">
         <v>45</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="91" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A91" s="100" t="s">
         <v>45</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="92" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A92" s="113" t="s">
         <v>45</v>
       </c>
@@ -26538,7 +26538,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="93" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A93" s="113" t="s">
         <v>45</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="94" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A94" s="125" t="s">
         <v>35</v>
       </c>
@@ -27097,7 +27097,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="95" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A95" s="100" t="s">
         <v>45</v>
       </c>
@@ -27360,7 +27360,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="96" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A96" s="113" t="s">
         <v>45</v>
       </c>
@@ -27623,7 +27623,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="97" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A97" s="113" t="s">
         <v>45</v>
       </c>
@@ -27886,7 +27886,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="98" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A98" s="100" t="s">
         <v>45</v>
       </c>
@@ -28149,7 +28149,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="99" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A99" s="113" t="s">
         <v>45</v>
       </c>
@@ -28412,7 +28412,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="100" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A100" s="113" t="s">
         <v>45</v>
       </c>
@@ -28675,7 +28675,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="101" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A101" s="100" t="s">
         <v>45</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="102" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A102" s="113" t="s">
         <v>45</v>
       </c>
@@ -29201,7 +29201,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="103" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A103" s="113" t="s">
         <v>45</v>
       </c>
@@ -29464,7 +29464,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="104" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A104" s="100" t="s">
         <v>45</v>
       </c>
@@ -29727,7 +29727,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="105" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A105" s="113" t="s">
         <v>45</v>
       </c>
@@ -29990,7 +29990,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="106" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A106" s="113" t="s">
         <v>45</v>
       </c>
@@ -30253,7 +30253,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="107" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A107" s="125" t="s">
         <v>35</v>
       </c>
@@ -30549,7 +30549,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="108" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A108" s="100" t="s">
         <v>45</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="109" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A109" s="113" t="s">
         <v>45</v>
       </c>
@@ -31075,7 +31075,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="110" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A110" s="113" t="s">
         <v>45</v>
       </c>
@@ -31338,7 +31338,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="111" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A111" s="100" t="s">
         <v>45</v>
       </c>
@@ -31601,7 +31601,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="112" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A112" s="113" t="s">
         <v>45</v>
       </c>
@@ -31864,7 +31864,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="113" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A113" s="113" t="s">
         <v>45</v>
       </c>
@@ -32127,7 +32127,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="114" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A114" s="100" t="s">
         <v>45</v>
       </c>
@@ -32390,7 +32390,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="115" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A115" s="113" t="s">
         <v>45</v>
       </c>
@@ -32653,7 +32653,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="116" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A116" s="113" t="s">
         <v>45</v>
       </c>
@@ -32916,7 +32916,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="117" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A117" s="100" t="s">
         <v>45</v>
       </c>
@@ -33179,7 +33179,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="118" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A118" s="113" t="s">
         <v>45</v>
       </c>
@@ -33442,7 +33442,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="119" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A119" s="113" t="s">
         <v>45</v>
       </c>
@@ -33705,7 +33705,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="120" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A120" s="125" t="s">
         <v>35</v>
       </c>
@@ -34001,7 +34001,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="121" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A121" s="100" t="s">
         <v>45</v>
       </c>
@@ -34264,7 +34264,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="122" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A122" s="113" t="s">
         <v>45</v>
       </c>
@@ -34527,7 +34527,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="123" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A123" s="113" t="s">
         <v>45</v>
       </c>
@@ -34790,7 +34790,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="124" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A124" s="100" t="s">
         <v>45</v>
       </c>
@@ -35053,7 +35053,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="125" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A125" s="113" t="s">
         <v>45</v>
       </c>
@@ -35316,7 +35316,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="126" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A126" s="113" t="s">
         <v>45</v>
       </c>
@@ -35579,7 +35579,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="127" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A127" s="100" t="s">
         <v>45</v>
       </c>
@@ -35842,7 +35842,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="128" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A128" s="113" t="s">
         <v>45</v>
       </c>
@@ -36105,7 +36105,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="129" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A129" s="113" t="s">
         <v>45</v>
       </c>
@@ -36368,7 +36368,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="130" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A130" s="100" t="s">
         <v>45</v>
       </c>
@@ -36631,7 +36631,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="131" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A131" s="113" t="s">
         <v>45</v>
       </c>
@@ -36894,7 +36894,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="132" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A132" s="113" t="s">
         <v>45</v>
       </c>
@@ -37157,7 +37157,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="133" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A133" s="125" t="s">
         <v>35</v>
       </c>
@@ -37453,7 +37453,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="134" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A134" s="100" t="s">
         <v>45</v>
       </c>
@@ -37716,7 +37716,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="135" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A135" s="113" t="s">
         <v>45</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="136" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A136" s="113" t="s">
         <v>45</v>
       </c>
@@ -38242,7 +38242,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="137" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A137" s="100" t="s">
         <v>45</v>
       </c>
@@ -38505,7 +38505,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="138" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A138" s="113" t="s">
         <v>45</v>
       </c>
@@ -38768,7 +38768,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="139" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A139" s="113" t="s">
         <v>45</v>
       </c>
@@ -39031,7 +39031,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="140" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A140" s="100" t="s">
         <v>45</v>
       </c>
@@ -39294,7 +39294,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="141" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A141" s="113" t="s">
         <v>45</v>
       </c>
@@ -39557,7 +39557,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="142" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A142" s="113" t="s">
         <v>45</v>
       </c>
@@ -39820,7 +39820,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="143" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A143" s="100" t="s">
         <v>45</v>
       </c>
@@ -40083,7 +40083,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="144" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A144" s="113" t="s">
         <v>45</v>
       </c>
@@ -40346,7 +40346,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="145" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A145" s="113" t="s">
         <v>45</v>
       </c>
@@ -40609,7 +40609,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="146" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A146" s="125" t="s">
         <v>35</v>
       </c>
@@ -40905,7 +40905,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="147" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A147" s="100" t="s">
         <v>45</v>
       </c>
@@ -41168,7 +41168,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="148" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A148" s="113" t="s">
         <v>45</v>
       </c>
@@ -41431,7 +41431,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="149" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A149" s="113" t="s">
         <v>45</v>
       </c>
@@ -41694,7 +41694,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="150" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A150" s="100" t="s">
         <v>45</v>
       </c>
@@ -41957,7 +41957,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="151" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A151" s="113" t="s">
         <v>45</v>
       </c>
@@ -42220,7 +42220,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="152" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A152" s="113" t="s">
         <v>45</v>
       </c>
@@ -42483,7 +42483,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="153" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A153" s="100" t="s">
         <v>45</v>
       </c>
@@ -42746,7 +42746,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="154" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A154" s="113" t="s">
         <v>45</v>
       </c>
@@ -43009,7 +43009,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="155" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A155" s="113" t="s">
         <v>45</v>
       </c>
@@ -43272,7 +43272,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="156" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A156" s="100" t="s">
         <v>45</v>
       </c>
@@ -43535,7 +43535,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="157" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A157" s="113" t="s">
         <v>45</v>
       </c>
@@ -43798,7 +43798,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="158" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A158" s="113" t="s">
         <v>45</v>
       </c>
@@ -44061,7 +44061,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="159" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A159" s="125" t="s">
         <v>35</v>
       </c>
@@ -44357,7 +44357,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="160" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A160" s="100" t="s">
         <v>45</v>
       </c>
@@ -44620,7 +44620,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="161" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A161" s="113" t="s">
         <v>45</v>
       </c>
@@ -44883,7 +44883,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="162" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A162" s="113" t="s">
         <v>45</v>
       </c>
@@ -45146,7 +45146,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="163" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A163" s="100" t="s">
         <v>45</v>
       </c>
@@ -45409,7 +45409,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="164" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A164" s="113" t="s">
         <v>45</v>
       </c>
@@ -45672,7 +45672,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="165" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A165" s="113" t="s">
         <v>45</v>
       </c>
@@ -45935,7 +45935,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="166" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A166" s="100" t="s">
         <v>45</v>
       </c>
@@ -46198,7 +46198,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="167" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A167" s="113" t="s">
         <v>45</v>
       </c>
@@ -46461,7 +46461,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="168" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A168" s="113" t="s">
         <v>45</v>
       </c>
@@ -46724,7 +46724,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="169" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A169" s="100" t="s">
         <v>45</v>
       </c>
@@ -46987,7 +46987,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="170" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A170" s="113" t="s">
         <v>45</v>
       </c>
@@ -47250,7 +47250,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="171" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A171" s="113" t="s">
         <v>45</v>
       </c>
@@ -47513,7 +47513,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="172" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A172" s="125" t="s">
         <v>35</v>
       </c>
@@ -47809,7 +47809,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="173" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A173" s="100" t="s">
         <v>45</v>
       </c>
@@ -48072,7 +48072,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="174" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A174" s="113" t="s">
         <v>45</v>
       </c>
@@ -48335,7 +48335,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="175" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A175" s="113" t="s">
         <v>45</v>
       </c>
@@ -48598,7 +48598,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="176" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A176" s="125" t="s">
         <v>35</v>
       </c>
@@ -48894,7 +48894,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="177" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A177" s="100" t="s">
         <v>45</v>
       </c>
@@ -49157,7 +49157,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="178" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A178" s="113" t="s">
         <v>45</v>
       </c>
@@ -49420,7 +49420,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="179" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A179" s="113" t="s">
         <v>45</v>
       </c>
@@ -49683,7 +49683,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="180" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A180" s="125" t="s">
         <v>35</v>
       </c>
@@ -49979,7 +49979,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="181" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A181" s="100" t="s">
         <v>59</v>
       </c>
@@ -50242,7 +50242,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="182" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A182" s="113" t="s">
         <v>59</v>
       </c>
@@ -50505,7 +50505,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="183" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A183" s="113" t="s">
         <v>59</v>
       </c>
@@ -50768,7 +50768,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="184" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A184" s="100" t="s">
         <v>59</v>
       </c>
@@ -51031,7 +51031,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="185" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A185" s="113" t="s">
         <v>59</v>
       </c>
@@ -51294,7 +51294,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="186" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A186" s="113" t="s">
         <v>59</v>
       </c>
@@ -51557,7 +51557,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="187" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A187" s="100" t="s">
         <v>59</v>
       </c>
@@ -51820,7 +51820,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="188" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A188" s="113" t="s">
         <v>59</v>
       </c>
@@ -52083,7 +52083,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="189" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A189" s="113" t="s">
         <v>59</v>
       </c>
@@ -52346,7 +52346,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="190" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A190" s="100" t="s">
         <v>59</v>
       </c>
@@ -52609,7 +52609,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="191" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A191" s="113" t="s">
         <v>59</v>
       </c>
@@ -52872,7 +52872,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="192" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A192" s="113" t="s">
         <v>59</v>
       </c>
@@ -53135,7 +53135,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="193" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A193" s="100" t="s">
         <v>41</v>
       </c>
@@ -53398,7 +53398,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="194" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A194" s="113" t="s">
         <v>41</v>
       </c>
@@ -53661,7 +53661,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="195" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A195" s="113" t="s">
         <v>41</v>
       </c>
@@ -53924,7 +53924,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="196" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A196" s="125" t="s">
         <v>35</v>
       </c>
@@ -54220,7 +54220,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="197" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A197" s="100" t="s">
         <v>41</v>
       </c>
@@ -54483,7 +54483,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="198" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A198" s="113" t="s">
         <v>41</v>
       </c>
@@ -54746,7 +54746,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="199" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A199" s="113" t="s">
         <v>41</v>
       </c>
@@ -55009,7 +55009,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="200" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A200" s="100" t="s">
         <v>41</v>
       </c>
@@ -55272,7 +55272,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="201" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A201" s="113" t="s">
         <v>41</v>
       </c>
@@ -55535,7 +55535,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="202" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A202" s="113" t="s">
         <v>41</v>
       </c>
@@ -55798,7 +55798,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="203" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A203" s="100" t="s">
         <v>41</v>
       </c>
@@ -56061,7 +56061,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="204" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A204" s="113" t="s">
         <v>41</v>
       </c>
@@ -56324,7 +56324,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="205" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A205" s="113" t="s">
         <v>41</v>
       </c>
@@ -56587,7 +56587,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="206" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A206" s="100" t="s">
         <v>41</v>
       </c>
@@ -56850,7 +56850,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="207" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A207" s="113" t="s">
         <v>41</v>
       </c>
@@ -57113,7 +57113,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="208" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A208" s="113" t="s">
         <v>41</v>
       </c>
@@ -57376,7 +57376,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="209" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A209" s="125" t="s">
         <v>35</v>
       </c>
@@ -57672,7 +57672,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="210" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A210" s="100" t="s">
         <v>45</v>
       </c>
@@ -57935,7 +57935,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="211" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A211" s="125" t="s">
         <v>35</v>
       </c>
@@ -58231,7 +58231,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="212" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A212" s="100" t="s">
         <v>26</v>
       </c>
@@ -58494,7 +58494,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="213" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A213" s="125" t="s">
         <v>35</v>
       </c>
@@ -58790,7 +58790,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="214" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A214" s="100" t="s">
         <v>45</v>
       </c>
@@ -59053,7 +59053,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="215" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A215" s="113" t="s">
         <v>45</v>
       </c>
@@ -59316,7 +59316,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="216" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A216" s="113" t="s">
         <v>45</v>
       </c>
@@ -59579,7 +59579,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="217" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A217" s="100" t="s">
         <v>45</v>
       </c>
@@ -59842,7 +59842,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="218" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A218" s="113" t="s">
         <v>45</v>
       </c>
@@ -60105,7 +60105,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="219" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A219" s="113" t="s">
         <v>45</v>
       </c>
@@ -60368,7 +60368,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="220" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A220" s="100" t="s">
         <v>45</v>
       </c>
@@ -60631,7 +60631,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="221" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A221" s="113" t="s">
         <v>45</v>
       </c>
@@ -60894,7 +60894,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="222" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A222" s="113" t="s">
         <v>45</v>
       </c>
@@ -61157,7 +61157,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="223" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A223" s="100" t="s">
         <v>45</v>
       </c>
@@ -61420,7 +61420,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="224" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A224" s="113" t="s">
         <v>45</v>
       </c>
@@ -61683,7 +61683,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="225" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A225" s="113" t="s">
         <v>45</v>
       </c>
@@ -61946,7 +61946,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="226" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A226" s="125" t="s">
         <v>35</v>
       </c>
@@ -62242,7 +62242,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="227" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A227" s="100" t="s">
         <v>41</v>
       </c>
@@ -62505,7 +62505,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="228" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A228" s="113" t="s">
         <v>41</v>
       </c>
@@ -62768,7 +62768,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="229" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A229" s="113" t="s">
         <v>41</v>
       </c>
@@ -63031,7 +63031,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="230" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A230" s="100" t="s">
         <v>41</v>
       </c>
@@ -63294,7 +63294,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="231" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A231" s="113" t="s">
         <v>41</v>
       </c>
@@ -63557,7 +63557,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="232" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A232" s="113" t="s">
         <v>41</v>
       </c>
@@ -63820,7 +63820,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="233" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A233" s="100" t="s">
         <v>41</v>
       </c>
@@ -64083,7 +64083,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="234" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A234" s="113" t="s">
         <v>41</v>
       </c>
@@ -64346,7 +64346,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="235" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A235" s="113" t="s">
         <v>41</v>
       </c>
@@ -64609,7 +64609,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="236" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A236" s="125" t="s">
         <v>35</v>
       </c>
@@ -64869,7 +64869,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="237" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A237" s="100" t="s">
         <v>41</v>
       </c>
@@ -65132,7 +65132,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="238" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A238" s="113" t="s">
         <v>41</v>
       </c>
@@ -65395,7 +65395,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="239" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A239" s="113" t="s">
         <v>41</v>
       </c>
@@ -65658,7 +65658,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="240" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A240" s="100" t="s">
         <v>41</v>
       </c>
@@ -65921,7 +65921,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="241" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A241" s="113" t="s">
         <v>41</v>
       </c>
@@ -66184,7 +66184,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="242" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A242" s="113" t="s">
         <v>41</v>
       </c>
@@ -66447,7 +66447,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="243" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A243" s="100" t="s">
         <v>41</v>
       </c>
@@ -66710,7 +66710,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="244" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A244" s="113" t="s">
         <v>41</v>
       </c>
@@ -66973,7 +66973,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="245" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A245" s="113" t="s">
         <v>41</v>
       </c>
@@ -67236,7 +67236,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="246" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A246" s="125" t="s">
         <v>35</v>
       </c>
@@ -67496,7 +67496,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="247" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A247" s="100" t="s">
         <v>45</v>
       </c>
@@ -67759,7 +67759,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="248" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A248" s="113" t="s">
         <v>45</v>
       </c>
@@ -68022,7 +68022,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="249" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A249" s="113" t="s">
         <v>45</v>
       </c>
@@ -68285,7 +68285,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="250" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A250" s="125" t="s">
         <v>35</v>
       </c>
@@ -68581,7 +68581,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="251" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A251" s="100" t="s">
         <v>45</v>
       </c>
@@ -68844,7 +68844,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="252" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A252" s="113" t="s">
         <v>45</v>
       </c>
@@ -69107,7 +69107,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="253" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A253" s="113" t="s">
         <v>45</v>
       </c>
@@ -69370,7 +69370,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="254" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A254" s="125" t="s">
         <v>35</v>
       </c>
@@ -69666,7 +69666,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="255" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A255" s="100" t="s">
         <v>26</v>
       </c>
@@ -69929,7 +69929,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="256" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A256" s="113" t="s">
         <v>26</v>
       </c>
@@ -70192,7 +70192,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="257" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A257" s="113" t="s">
         <v>26</v>
       </c>
@@ -70455,7 +70455,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="258" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A258" s="100" t="s">
         <v>26</v>
       </c>
@@ -70718,7 +70718,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="259" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A259" s="113" t="s">
         <v>26</v>
       </c>
@@ -70981,7 +70981,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="260" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A260" s="113" t="s">
         <v>26</v>
       </c>
@@ -71244,7 +71244,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="261" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A261" s="100" t="s">
         <v>26</v>
       </c>
@@ -71507,7 +71507,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="262" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A262" s="113" t="s">
         <v>26</v>
       </c>
@@ -71770,7 +71770,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="263" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A263" s="113" t="s">
         <v>26</v>
       </c>
@@ -72033,7 +72033,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="264" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A264" s="125" t="s">
         <v>35</v>
       </c>
@@ -72329,7 +72329,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="265" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A265" s="116"/>
       <c r="B265" s="141"/>
       <c r="C265" s="116"/>
@@ -72407,7 +72407,7 @@
       <c r="BW265" s="116"/>
       <c r="BX265" s="116"/>
     </row>
-    <row r="266" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A266" s="143" t="s">
         <v>35</v>
       </c>
@@ -72701,7 +72701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A267" s="148" t="s">
         <v>35</v>
       </c>
@@ -72995,7 +72995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A268" s="151" t="s">
         <v>45</v>
       </c>
@@ -73289,7 +73289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A269" s="151" t="s">
         <v>26</v>
       </c>
@@ -73583,7 +73583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A270" s="125" t="s">
         <v>35</v>
       </c>
@@ -73877,7 +73877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A271" s="151" t="s">
         <v>45</v>
       </c>
@@ -74171,7 +74171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A272" s="151" t="s">
         <v>26</v>
       </c>
@@ -74465,7 +74465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A273" s="125" t="s">
         <v>35</v>
       </c>
@@ -74759,7 +74759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A274" s="151" t="s">
         <v>45</v>
       </c>
@@ -75053,7 +75053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A275" s="151" t="s">
         <v>59</v>
       </c>
@@ -75347,7 +75347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A276" s="125" t="s">
         <v>35</v>
       </c>
@@ -75641,7 +75641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A277" s="151" t="s">
         <v>41</v>
       </c>
@@ -75935,7 +75935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A278" s="125" t="s">
         <v>35</v>
       </c>
@@ -76229,7 +76229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A279" s="116"/>
       <c r="B279" s="164"/>
       <c r="C279" s="165"/>
@@ -76307,7 +76307,7 @@
       <c r="BW279" s="116"/>
       <c r="BX279" s="116"/>
     </row>
-    <row r="280" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A280" s="166" t="s">
         <v>45</v>
       </c>
@@ -76601,7 +76601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A281" s="151" t="s">
         <v>26</v>
       </c>
@@ -76895,7 +76895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A282" s="166" t="s">
         <v>45</v>
       </c>
@@ -77189,7 +77189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A283" s="151" t="s">
         <v>26</v>
       </c>
@@ -77483,7 +77483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A284" s="125" t="s">
         <v>35</v>
       </c>
@@ -77777,7 +77777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A285" s="116"/>
       <c r="B285" s="141"/>
       <c r="C285" s="116"/>
@@ -77855,7 +77855,7 @@
       <c r="BW285" s="116"/>
       <c r="BX285" s="116"/>
     </row>
-    <row r="286" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A286" s="166" t="s">
         <v>45</v>
       </c>
@@ -78149,7 +78149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A287" s="151" t="s">
         <v>26</v>
       </c>
@@ -78443,7 +78443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A288" s="166" t="s">
         <v>45</v>
       </c>
@@ -78737,7 +78737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A289" s="172" t="s">
         <v>26</v>
       </c>
@@ -79031,7 +79031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A290" s="125" t="s">
         <v>35</v>
       </c>
@@ -79325,7 +79325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A291" s="177" t="s">
         <v>45</v>
       </c>
@@ -79619,7 +79619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A292" s="125" t="s">
         <v>35</v>
       </c>
@@ -79913,7 +79913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A293" s="166" t="s">
         <v>45</v>
       </c>
@@ -80207,7 +80207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A294" s="151" t="s">
         <v>26</v>
       </c>
@@ -80501,7 +80501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A295" s="125" t="s">
         <v>35</v>
       </c>
@@ -80793,7 +80793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A296" s="125" t="s">
         <v>35</v>
       </c>
@@ -81087,7 +81087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A297" s="125" t="s">
         <v>35</v>
       </c>
@@ -81381,7 +81381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A298" s="125" t="s">
         <v>35</v>
       </c>
@@ -81395,287 +81395,287 @@
         <v>20</v>
       </c>
       <c r="G298" s="35">
-        <f t="shared" ref="G298:AL298" si="754">SUMIF($F$4:$F$253,"RUMO",G$4:G$253)+SUMIF($F$4:$F$253,"MRS",G$4:G$253)+SUMIF($F$4:$F$253,"VLI",G$4:G$253)</f>
+        <f>SUMIF($F$4:$F$263,"RUMO",G$4:G$263)+SUMIF($F$4:$F$263,"MRS",G$4:G$263)+SUMIF($F$4:$F$263,"VLI",G$4:G$263)</f>
         <v>0</v>
       </c>
       <c r="H298" s="36">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",H$4:H$263)+SUMIF($F$4:$F$263,"MRS",H$4:H$263)+SUMIF($F$4:$F$263,"VLI",H$4:H$263)</f>
         <v>0</v>
       </c>
       <c r="I298" s="37">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",I$4:I$263)+SUMIF($F$4:$F$263,"MRS",I$4:I$263)+SUMIF($F$4:$F$263,"VLI",I$4:I$263)</f>
         <v>0</v>
       </c>
       <c r="J298" s="38">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",J$4:J$263)+SUMIF($F$4:$F$263,"MRS",J$4:J$263)+SUMIF($F$4:$F$263,"VLI",J$4:J$263)</f>
         <v>0</v>
       </c>
       <c r="K298" s="52">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",K$4:K$263)+SUMIF($F$4:$F$263,"MRS",K$4:K$263)+SUMIF($F$4:$F$263,"VLI",K$4:K$263)</f>
         <v>0</v>
       </c>
       <c r="L298" s="37">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",L$4:L$263)+SUMIF($F$4:$F$263,"MRS",L$4:L$263)+SUMIF($F$4:$F$263,"VLI",L$4:L$263)</f>
         <v>0</v>
       </c>
       <c r="M298" s="38">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",M$4:M$263)+SUMIF($F$4:$F$263,"MRS",M$4:M$263)+SUMIF($F$4:$F$263,"VLI",M$4:M$263)</f>
         <v>0</v>
       </c>
       <c r="N298" s="39">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",N$4:N$263)+SUMIF($F$4:$F$263,"MRS",N$4:N$263)+SUMIF($F$4:$F$263,"VLI",N$4:N$263)</f>
         <v>0</v>
       </c>
       <c r="O298" s="37">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",O$4:O$263)+SUMIF($F$4:$F$263,"MRS",O$4:O$263)+SUMIF($F$4:$F$263,"VLI",O$4:O$263)</f>
         <v>0</v>
       </c>
       <c r="P298" s="38">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",P$4:P$263)+SUMIF($F$4:$F$263,"MRS",P$4:P$263)+SUMIF($F$4:$F$263,"VLI",P$4:P$263)</f>
         <v>0</v>
       </c>
       <c r="Q298" s="39">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",Q$4:Q$263)+SUMIF($F$4:$F$263,"MRS",Q$4:Q$263)+SUMIF($F$4:$F$263,"VLI",Q$4:Q$263)</f>
         <v>0</v>
       </c>
       <c r="R298" s="37">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",R$4:R$263)+SUMIF($F$4:$F$263,"MRS",R$4:R$263)+SUMIF($F$4:$F$263,"VLI",R$4:R$263)</f>
         <v>0</v>
       </c>
       <c r="S298" s="37">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",S$4:S$263)+SUMIF($F$4:$F$263,"MRS",S$4:S$263)+SUMIF($F$4:$F$263,"VLI",S$4:S$263)</f>
         <v>0</v>
       </c>
       <c r="T298" s="37">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",T$4:T$263)+SUMIF($F$4:$F$263,"MRS",T$4:T$263)+SUMIF($F$4:$F$263,"VLI",T$4:T$263)</f>
         <v>0</v>
       </c>
       <c r="U298" s="42">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",U$4:U$263)+SUMIF($F$4:$F$263,"MRS",U$4:U$263)+SUMIF($F$4:$F$263,"VLI",U$4:U$263)</f>
         <v>0</v>
       </c>
       <c r="V298" s="43">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",V$4:V$263)+SUMIF($F$4:$F$263,"MRS",V$4:V$263)+SUMIF($F$4:$F$263,"VLI",V$4:V$263)</f>
         <v>0</v>
       </c>
       <c r="W298" s="44">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",W$4:W$263)+SUMIF($F$4:$F$263,"MRS",W$4:W$263)+SUMIF($F$4:$F$263,"VLI",W$4:W$263)</f>
         <v>0</v>
       </c>
       <c r="X298" s="42">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",X$4:X$263)+SUMIF($F$4:$F$263,"MRS",X$4:X$263)+SUMIF($F$4:$F$263,"VLI",X$4:X$263)</f>
         <v>0</v>
       </c>
       <c r="Y298" s="43">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",Y$4:Y$263)+SUMIF($F$4:$F$263,"MRS",Y$4:Y$263)+SUMIF($F$4:$F$263,"VLI",Y$4:Y$263)</f>
         <v>0</v>
       </c>
       <c r="Z298" s="44">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",Z$4:Z$263)+SUMIF($F$4:$F$263,"MRS",Z$4:Z$263)+SUMIF($F$4:$F$263,"VLI",Z$4:Z$263)</f>
         <v>0</v>
       </c>
       <c r="AA298" s="42">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AA$4:AA$263)+SUMIF($F$4:$F$263,"MRS",AA$4:AA$263)+SUMIF($F$4:$F$263,"VLI",AA$4:AA$263)</f>
         <v>0</v>
       </c>
       <c r="AB298" s="43">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AB$4:AB$263)+SUMIF($F$4:$F$263,"MRS",AB$4:AB$263)+SUMIF($F$4:$F$263,"VLI",AB$4:AB$263)</f>
         <v>0</v>
       </c>
       <c r="AC298" s="44">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AC$4:AC$263)+SUMIF($F$4:$F$263,"MRS",AC$4:AC$263)+SUMIF($F$4:$F$263,"VLI",AC$4:AC$263)</f>
         <v>0</v>
       </c>
       <c r="AD298" s="42">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AD$4:AD$263)+SUMIF($F$4:$F$263,"MRS",AD$4:AD$263)+SUMIF($F$4:$F$263,"VLI",AD$4:AD$263)</f>
         <v>0</v>
       </c>
       <c r="AE298" s="43">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AE$4:AE$263)+SUMIF($F$4:$F$263,"MRS",AE$4:AE$263)+SUMIF($F$4:$F$263,"VLI",AE$4:AE$263)</f>
         <v>0</v>
       </c>
       <c r="AF298" s="44">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AF$4:AF$263)+SUMIF($F$4:$F$263,"MRS",AF$4:AF$263)+SUMIF($F$4:$F$263,"VLI",AF$4:AF$263)</f>
         <v>0</v>
       </c>
       <c r="AG298" s="44">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AG$4:AG$263)+SUMIF($F$4:$F$263,"MRS",AG$4:AG$263)+SUMIF($F$4:$F$263,"VLI",AG$4:AG$263)</f>
         <v>0</v>
       </c>
       <c r="AH298" s="44">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AH$4:AH$263)+SUMIF($F$4:$F$263,"MRS",AH$4:AH$263)+SUMIF($F$4:$F$263,"VLI",AH$4:AH$263)</f>
         <v>0</v>
       </c>
       <c r="AI298" s="35">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AI$4:AI$263)+SUMIF($F$4:$F$263,"MRS",AI$4:AI$263)+SUMIF($F$4:$F$263,"VLI",AI$4:AI$263)</f>
         <v>0</v>
       </c>
       <c r="AJ298" s="36">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AJ$4:AJ$263)+SUMIF($F$4:$F$263,"MRS",AJ$4:AJ$263)+SUMIF($F$4:$F$263,"VLI",AJ$4:AJ$263)</f>
         <v>0</v>
       </c>
       <c r="AK298" s="37">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AK$4:AK$263)+SUMIF($F$4:$F$263,"MRS",AK$4:AK$263)+SUMIF($F$4:$F$263,"VLI",AK$4:AK$263)</f>
         <v>0</v>
       </c>
       <c r="AL298" s="35">
-        <f t="shared" si="754"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AL$4:AL$263)+SUMIF($F$4:$F$263,"MRS",AL$4:AL$263)+SUMIF($F$4:$F$263,"VLI",AL$4:AL$263)</f>
         <v>0</v>
       </c>
       <c r="AM298" s="36">
-        <f t="shared" ref="AM298:BR298" si="755">SUMIF($F$4:$F$253,"RUMO",AM$4:AM$253)+SUMIF($F$4:$F$253,"MRS",AM$4:AM$253)+SUMIF($F$4:$F$253,"VLI",AM$4:AM$253)</f>
+        <f>SUMIF($F$4:$F$263,"RUMO",AM$4:AM$263)+SUMIF($F$4:$F$263,"MRS",AM$4:AM$263)+SUMIF($F$4:$F$263,"VLI",AM$4:AM$263)</f>
         <v>0</v>
       </c>
       <c r="AN298" s="37">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AN$4:AN$263)+SUMIF($F$4:$F$263,"MRS",AN$4:AN$263)+SUMIF($F$4:$F$263,"VLI",AN$4:AN$263)</f>
         <v>0</v>
       </c>
       <c r="AO298" s="35">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AO$4:AO$263)+SUMIF($F$4:$F$263,"MRS",AO$4:AO$263)+SUMIF($F$4:$F$263,"VLI",AO$4:AO$263)</f>
         <v>0</v>
       </c>
       <c r="AP298" s="36">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AP$4:AP$263)+SUMIF($F$4:$F$263,"MRS",AP$4:AP$263)+SUMIF($F$4:$F$263,"VLI",AP$4:AP$263)</f>
         <v>0</v>
       </c>
       <c r="AQ298" s="37">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AQ$4:AQ$263)+SUMIF($F$4:$F$263,"MRS",AQ$4:AQ$263)+SUMIF($F$4:$F$263,"VLI",AQ$4:AQ$263)</f>
         <v>0</v>
       </c>
       <c r="AR298" s="35">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AR$4:AR$263)+SUMIF($F$4:$F$263,"MRS",AR$4:AR$263)+SUMIF($F$4:$F$263,"VLI",AR$4:AR$263)</f>
         <v>0</v>
       </c>
       <c r="AS298" s="36">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AS$4:AS$263)+SUMIF($F$4:$F$263,"MRS",AS$4:AS$263)+SUMIF($F$4:$F$263,"VLI",AS$4:AS$263)</f>
         <v>0</v>
       </c>
       <c r="AT298" s="37">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AT$4:AT$263)+SUMIF($F$4:$F$263,"MRS",AT$4:AT$263)+SUMIF($F$4:$F$263,"VLI",AT$4:AT$263)</f>
         <v>0</v>
       </c>
       <c r="AU298" s="37">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AU$4:AU$263)+SUMIF($F$4:$F$263,"MRS",AU$4:AU$263)+SUMIF($F$4:$F$263,"VLI",AU$4:AU$263)</f>
         <v>0</v>
       </c>
       <c r="AV298" s="37">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AV$4:AV$263)+SUMIF($F$4:$F$263,"MRS",AV$4:AV$263)+SUMIF($F$4:$F$263,"VLI",AV$4:AV$263)</f>
         <v>0</v>
       </c>
       <c r="AW298" s="42">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AW$4:AW$263)+SUMIF($F$4:$F$263,"MRS",AW$4:AW$263)+SUMIF($F$4:$F$263,"VLI",AW$4:AW$263)</f>
         <v>0</v>
       </c>
       <c r="AX298" s="43">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AX$4:AX$263)+SUMIF($F$4:$F$263,"MRS",AX$4:AX$263)+SUMIF($F$4:$F$263,"VLI",AX$4:AX$263)</f>
         <v>0</v>
       </c>
       <c r="AY298" s="44">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AY$4:AY$263)+SUMIF($F$4:$F$263,"MRS",AY$4:AY$263)+SUMIF($F$4:$F$263,"VLI",AY$4:AY$263)</f>
         <v>0</v>
       </c>
       <c r="AZ298" s="42">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",AZ$4:AZ$263)+SUMIF($F$4:$F$263,"MRS",AZ$4:AZ$263)+SUMIF($F$4:$F$263,"VLI",AZ$4:AZ$263)</f>
         <v>0</v>
       </c>
       <c r="BA298" s="43">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BA$4:BA$263)+SUMIF($F$4:$F$263,"MRS",BA$4:BA$263)+SUMIF($F$4:$F$263,"VLI",BA$4:BA$263)</f>
         <v>0</v>
       </c>
       <c r="BB298" s="44">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BB$4:BB$263)+SUMIF($F$4:$F$263,"MRS",BB$4:BB$263)+SUMIF($F$4:$F$263,"VLI",BB$4:BB$263)</f>
         <v>0</v>
       </c>
       <c r="BC298" s="42">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BC$4:BC$263)+SUMIF($F$4:$F$263,"MRS",BC$4:BC$263)+SUMIF($F$4:$F$263,"VLI",BC$4:BC$263)</f>
         <v>0</v>
       </c>
       <c r="BD298" s="43">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BD$4:BD$263)+SUMIF($F$4:$F$263,"MRS",BD$4:BD$263)+SUMIF($F$4:$F$263,"VLI",BD$4:BD$263)</f>
         <v>0</v>
       </c>
       <c r="BE298" s="44">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BE$4:BE$263)+SUMIF($F$4:$F$263,"MRS",BE$4:BE$263)+SUMIF($F$4:$F$263,"VLI",BE$4:BE$263)</f>
         <v>0</v>
       </c>
       <c r="BF298" s="42">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BF$4:BF$263)+SUMIF($F$4:$F$263,"MRS",BF$4:BF$263)+SUMIF($F$4:$F$263,"VLI",BF$4:BF$263)</f>
         <v>0</v>
       </c>
       <c r="BG298" s="43">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BG$4:BG$263)+SUMIF($F$4:$F$263,"MRS",BG$4:BG$263)+SUMIF($F$4:$F$263,"VLI",BG$4:BG$263)</f>
         <v>0</v>
       </c>
       <c r="BH298" s="44">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BH$4:BH$263)+SUMIF($F$4:$F$263,"MRS",BH$4:BH$263)+SUMIF($F$4:$F$263,"VLI",BH$4:BH$263)</f>
         <v>0</v>
       </c>
       <c r="BI298" s="44">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BI$4:BI$263)+SUMIF($F$4:$F$263,"MRS",BI$4:BI$263)+SUMIF($F$4:$F$263,"VLI",BI$4:BI$263)</f>
         <v>0</v>
       </c>
       <c r="BJ298" s="44">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BJ$4:BJ$263)+SUMIF($F$4:$F$263,"MRS",BJ$4:BJ$263)+SUMIF($F$4:$F$263,"VLI",BJ$4:BJ$263)</f>
         <v>0</v>
       </c>
       <c r="BK298" s="35">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BK$4:BK$263)+SUMIF($F$4:$F$263,"MRS",BK$4:BK$263)+SUMIF($F$4:$F$263,"VLI",BK$4:BK$263)</f>
         <v>0</v>
       </c>
       <c r="BL298" s="36">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BL$4:BL$263)+SUMIF($F$4:$F$263,"MRS",BL$4:BL$263)+SUMIF($F$4:$F$263,"VLI",BL$4:BL$263)</f>
         <v>0</v>
       </c>
       <c r="BM298" s="37">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BM$4:BM$263)+SUMIF($F$4:$F$263,"MRS",BM$4:BM$263)+SUMIF($F$4:$F$263,"VLI",BM$4:BM$263)</f>
         <v>0</v>
       </c>
       <c r="BN298" s="35">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BN$4:BN$263)+SUMIF($F$4:$F$263,"MRS",BN$4:BN$263)+SUMIF($F$4:$F$263,"VLI",BN$4:BN$263)</f>
         <v>0</v>
       </c>
       <c r="BO298" s="36">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BO$4:BO$263)+SUMIF($F$4:$F$263,"MRS",BO$4:BO$263)+SUMIF($F$4:$F$263,"VLI",BO$4:BO$263)</f>
         <v>0</v>
       </c>
       <c r="BP298" s="37">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BP$4:BP$263)+SUMIF($F$4:$F$263,"MRS",BP$4:BP$263)+SUMIF($F$4:$F$263,"VLI",BP$4:BP$263)</f>
         <v>0</v>
       </c>
       <c r="BQ298" s="35">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BQ$4:BQ$263)+SUMIF($F$4:$F$263,"MRS",BQ$4:BQ$263)+SUMIF($F$4:$F$263,"VLI",BQ$4:BQ$263)</f>
         <v>0</v>
       </c>
       <c r="BR298" s="36">
-        <f t="shared" si="755"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BR$4:BR$263)+SUMIF($F$4:$F$263,"MRS",BR$4:BR$263)+SUMIF($F$4:$F$263,"VLI",BR$4:BR$263)</f>
         <v>0</v>
       </c>
       <c r="BS298" s="37">
-        <f t="shared" ref="BS298:BX298" si="756">SUMIF($F$4:$F$253,"RUMO",BS$4:BS$253)+SUMIF($F$4:$F$253,"MRS",BS$4:BS$253)+SUMIF($F$4:$F$253,"VLI",BS$4:BS$253)</f>
+        <f>SUMIF($F$4:$F$263,"RUMO",BS$4:BS$263)+SUMIF($F$4:$F$263,"MRS",BS$4:BS$263)+SUMIF($F$4:$F$263,"VLI",BS$4:BS$263)</f>
         <v>0</v>
       </c>
       <c r="BT298" s="35">
-        <f t="shared" si="756"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BT$4:BT$263)+SUMIF($F$4:$F$263,"MRS",BT$4:BT$263)+SUMIF($F$4:$F$263,"VLI",BT$4:BT$263)</f>
         <v>0</v>
       </c>
       <c r="BU298" s="36">
-        <f t="shared" si="756"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BU$4:BU$263)+SUMIF($F$4:$F$263,"MRS",BU$4:BU$263)+SUMIF($F$4:$F$263,"VLI",BU$4:BU$263)</f>
         <v>0</v>
       </c>
       <c r="BV298" s="37">
-        <f t="shared" si="756"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BV$4:BV$263)+SUMIF($F$4:$F$263,"MRS",BV$4:BV$263)+SUMIF($F$4:$F$263,"VLI",BV$4:BV$263)</f>
         <v>0</v>
       </c>
       <c r="BW298" s="37">
-        <f t="shared" si="756"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BW$4:BW$263)+SUMIF($F$4:$F$263,"MRS",BW$4:BW$263)+SUMIF($F$4:$F$263,"VLI",BW$4:BW$263)</f>
         <v>0</v>
       </c>
       <c r="BX298" s="37">
-        <f t="shared" si="756"/>
+        <f>SUMIF($F$4:$F$263,"RUMO",BX$4:BX$263)+SUMIF($F$4:$F$263,"MRS",BX$4:BX$263)+SUMIF($F$4:$F$263,"VLI",BX$4:BX$263)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A300" s="183"/>
       <c r="B300" s="184"/>
       <c r="C300" s="183"/>
@@ -81754,7 +81754,7 @@
       <c r="BW300" s="183"/>
       <c r="BX300" s="183"/>
     </row>
-    <row r="301" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A301" s="183"/>
       <c r="B301" s="184"/>
       <c r="C301" s="183"/>
@@ -81766,227 +81766,227 @@
         <v>102</v>
       </c>
       <c r="G301" s="105">
-        <f t="shared" ref="G301:AL301" si="757">SUMIFS(G$4:G$253, $E$4:$E$253, "MILHO", $F$4:$F$253, "RUMO")</f>
+        <f t="shared" ref="G301:AL301" si="754">SUMIFS(G$4:G$253, $E$4:$E$253, "MILHO", $F$4:$F$253, "RUMO")</f>
         <v>0</v>
       </c>
       <c r="H301" s="106">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="I301" s="107">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="J301" s="105">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="K301" s="106">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="L301" s="107">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="M301" s="105">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="N301" s="106">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="O301" s="108">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="P301" s="105">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="Q301" s="106">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="R301" s="107">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="S301" s="109">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="T301" s="109">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="U301" s="110">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="V301" s="111">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="W301" s="112">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="X301" s="110">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="Y301" s="111">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="Z301" s="112">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AA301" s="110">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AB301" s="111">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AC301" s="112">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AD301" s="110">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AE301" s="111">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AF301" s="112">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AG301" s="109">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AH301" s="109">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AI301" s="105">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AJ301" s="106">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AK301" s="107">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AL301" s="105">
-        <f t="shared" si="757"/>
+        <f t="shared" si="754"/>
         <v>0</v>
       </c>
       <c r="AM301" s="106">
-        <f t="shared" ref="AM301:BJ301" si="758">SUMIFS(AM$4:AM$253, $E$4:$E$253, "MILHO", $F$4:$F$253, "RUMO")</f>
+        <f t="shared" ref="AM301:BJ301" si="755">SUMIFS(AM$4:AM$253, $E$4:$E$253, "MILHO", $F$4:$F$253, "RUMO")</f>
         <v>0</v>
       </c>
       <c r="AN301" s="107">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AO301" s="105">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AP301" s="106">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AQ301" s="108">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AR301" s="105">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AS301" s="106">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AT301" s="107">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AU301" s="109">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AV301" s="109">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AW301" s="105">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AX301" s="106">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AY301" s="112">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="AZ301" s="105">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BA301" s="106">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BB301" s="112">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BC301" s="105">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BD301" s="106">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BE301" s="112">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BF301" s="105">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BG301" s="106">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BH301" s="112">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BI301" s="109">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BJ301" s="109">
-        <f t="shared" si="758"/>
+        <f t="shared" si="755"/>
         <v>0</v>
       </c>
       <c r="BK301" s="183"/>
@@ -82004,7 +82004,7 @@
       <c r="BW301" s="183"/>
       <c r="BX301" s="183"/>
     </row>
-    <row r="302" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A302" s="183"/>
       <c r="B302" s="184"/>
       <c r="C302" s="183"/>
@@ -82016,227 +82016,227 @@
         <v>102</v>
       </c>
       <c r="G302" s="118">
-        <f t="shared" ref="G302:AL302" si="759">SUMIFS(G$4:G$253, $E$4:$E$253, "FARELO", $F$4:$F$253, "RUMO")</f>
+        <f t="shared" ref="G302:AL302" si="756">SUMIFS(G$4:G$253, $E$4:$E$253, "FARELO", $F$4:$F$253, "RUMO")</f>
         <v>0</v>
       </c>
       <c r="H302" s="119">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="I302" s="120">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="J302" s="118">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="K302" s="119">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="L302" s="120">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="M302" s="118">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="N302" s="119">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="O302" s="120">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="P302" s="118">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="Q302" s="119">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="R302" s="120">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="S302" s="121">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="T302" s="121">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="U302" s="122">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="V302" s="123">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="W302" s="124">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="X302" s="122">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="Y302" s="123">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="Z302" s="124">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AA302" s="122">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AB302" s="123">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AC302" s="124">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AD302" s="122">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AE302" s="123">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AF302" s="124">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AG302" s="121">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AH302" s="121">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AI302" s="118">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AJ302" s="119">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AK302" s="120">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AL302" s="118">
-        <f t="shared" si="759"/>
+        <f t="shared" si="756"/>
         <v>0</v>
       </c>
       <c r="AM302" s="119">
-        <f t="shared" ref="AM302:BJ302" si="760">SUMIFS(AM$4:AM$253, $E$4:$E$253, "FARELO", $F$4:$F$253, "RUMO")</f>
+        <f t="shared" ref="AM302:BJ302" si="757">SUMIFS(AM$4:AM$253, $E$4:$E$253, "FARELO", $F$4:$F$253, "RUMO")</f>
         <v>0</v>
       </c>
       <c r="AN302" s="120">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AO302" s="118">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AP302" s="119">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AQ302" s="120">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AR302" s="118">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AS302" s="119">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AT302" s="120">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AU302" s="121">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AV302" s="121">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AW302" s="118">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AX302" s="119">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AY302" s="124">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="AZ302" s="118">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BA302" s="119">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BB302" s="124">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BC302" s="118">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BD302" s="119">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BE302" s="124">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BF302" s="118">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BG302" s="119">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BH302" s="124">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BI302" s="121">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BJ302" s="121">
-        <f t="shared" si="760"/>
+        <f t="shared" si="757"/>
         <v>0</v>
       </c>
       <c r="BK302" s="183"/>
@@ -82254,7 +82254,7 @@
       <c r="BW302" s="183"/>
       <c r="BX302" s="183"/>
     </row>
-    <row r="303" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A303" s="183"/>
       <c r="B303" s="184"/>
       <c r="C303" s="183"/>
@@ -82266,227 +82266,227 @@
         <v>102</v>
       </c>
       <c r="G303" s="118">
-        <f t="shared" ref="G303:AL303" si="761">SUMIFS(G$4:G$253, $E$4:$E$253, "SOJA", $F$4:$F$253, "RUMO")</f>
+        <f t="shared" ref="G303:AL303" si="758">SUMIFS(G$4:G$253, $E$4:$E$253, "SOJA", $F$4:$F$253, "RUMO")</f>
         <v>0</v>
       </c>
       <c r="H303" s="119">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="I303" s="120">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="J303" s="118">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="K303" s="119">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="L303" s="120">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="M303" s="118">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="N303" s="119">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="O303" s="120">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="P303" s="118">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="Q303" s="119">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="R303" s="120">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="S303" s="121">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="T303" s="121">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="U303" s="122">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="V303" s="123">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="W303" s="124">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="X303" s="122">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="Y303" s="123">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="Z303" s="124">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AA303" s="122">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AB303" s="123">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AC303" s="124">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AD303" s="122">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AE303" s="123">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AF303" s="124">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AG303" s="121">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AH303" s="121">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AI303" s="118">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AJ303" s="119">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AK303" s="120">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AL303" s="118">
-        <f t="shared" si="761"/>
+        <f t="shared" si="758"/>
         <v>0</v>
       </c>
       <c r="AM303" s="119">
-        <f t="shared" ref="AM303:BJ303" si="762">SUMIFS(AM$4:AM$253, $E$4:$E$253, "SOJA", $F$4:$F$253, "RUMO")</f>
+        <f t="shared" ref="AM303:BJ303" si="759">SUMIFS(AM$4:AM$253, $E$4:$E$253, "SOJA", $F$4:$F$253, "RUMO")</f>
         <v>0</v>
       </c>
       <c r="AN303" s="120">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AO303" s="118">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AP303" s="119">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AQ303" s="120">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AR303" s="118">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AS303" s="119">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AT303" s="120">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AU303" s="121">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AV303" s="121">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AW303" s="118">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AX303" s="119">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AY303" s="124">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="AZ303" s="118">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BA303" s="119">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BB303" s="124">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BC303" s="118">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BD303" s="119">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BE303" s="124">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BF303" s="118">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BG303" s="119">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BH303" s="124">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BI303" s="121">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BJ303" s="121">
-        <f t="shared" si="762"/>
+        <f t="shared" si="759"/>
         <v>0</v>
       </c>
       <c r="BK303" s="183"/>
@@ -82504,7 +82504,7 @@
       <c r="BW303" s="183"/>
       <c r="BX303" s="183"/>
     </row>
-    <row r="304" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A304" s="183"/>
       <c r="B304" s="184"/>
       <c r="C304" s="183"/>
@@ -82514,227 +82514,227 @@
       </c>
       <c r="F304" s="129"/>
       <c r="G304" s="187">
-        <f t="shared" ref="G304:AL304" si="763">SUM(G301:G303)</f>
+        <f t="shared" ref="G304:AL304" si="760">SUM(G301:G303)</f>
         <v>0</v>
       </c>
       <c r="H304" s="188">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="I304" s="189">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="J304" s="187">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="K304" s="188">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="L304" s="189">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="M304" s="187">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="N304" s="188">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="O304" s="190">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="P304" s="187">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="Q304" s="188">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="R304" s="189">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="S304" s="191">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="T304" s="191">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="U304" s="192">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="V304" s="193">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="W304" s="44">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="X304" s="192">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="Y304" s="193">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="Z304" s="44">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AA304" s="192">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AB304" s="193">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AC304" s="44">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AD304" s="192">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AE304" s="193">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AF304" s="44">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AG304" s="191">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AH304" s="191">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AI304" s="187">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AJ304" s="188">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AK304" s="189">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AL304" s="187">
-        <f t="shared" si="763"/>
+        <f t="shared" si="760"/>
         <v>0</v>
       </c>
       <c r="AM304" s="188">
-        <f t="shared" ref="AM304:BJ304" si="764">SUM(AM301:AM303)</f>
+        <f t="shared" ref="AM304:BJ304" si="761">SUM(AM301:AM303)</f>
         <v>0</v>
       </c>
       <c r="AN304" s="189">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AO304" s="187">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AP304" s="188">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AQ304" s="190">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AR304" s="187">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AS304" s="188">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AT304" s="189">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AU304" s="191">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AV304" s="191">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AW304" s="187">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AX304" s="188">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AY304" s="44">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="AZ304" s="187">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BA304" s="188">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BB304" s="44">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BC304" s="187">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BD304" s="188">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BE304" s="44">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BF304" s="187">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BG304" s="188">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BH304" s="44">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BI304" s="191">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BJ304" s="191">
-        <f t="shared" si="764"/>
+        <f t="shared" si="761"/>
         <v>0</v>
       </c>
       <c r="BK304" s="183"/>
@@ -82755,17 +82755,6 @@
   </sheetData>
   <autoFilter ref="BY1:BY304"/>
   <mergeCells count="27">
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="BF2:BH2"/>
     <mergeCell ref="BN2:BP2"/>
     <mergeCell ref="AW1:BJ1"/>
@@ -82782,6 +82771,17 @@
     <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="BT2:BV2"/>
     <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -82796,23 +82796,23 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="197" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="197" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="197" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="197" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="197" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="197" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="197" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="197" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="197" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="197" customWidth="1"/>
     <col min="6" max="7" width="17" style="197" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="197" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="197" customWidth="1"/>
     <col min="9" max="10" width="17" style="197" customWidth="1"/>
     <col min="11" max="11" width="41" style="197" customWidth="1"/>
-    <col min="12" max="13" width="9.109375" style="197" customWidth="1"/>
-    <col min="14" max="1675" width="9.109375" style="197" hidden="1" customWidth="1"/>
-    <col min="1676" max="16384" width="9.109375" style="197" hidden="1"/>
+    <col min="12" max="13" width="9.140625" style="197" customWidth="1"/>
+    <col min="14" max="1675" width="9.140625" style="197" hidden="1" customWidth="1"/>
+    <col min="1676" max="16384" width="9.140625" style="197" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="71"/>
       <c r="B1" s="56"/>
       <c r="C1" s="75"/>
@@ -82825,7 +82825,7 @@
       <c r="J1" s="90"/>
       <c r="K1" s="90"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="71"/>
       <c r="B2" s="56"/>
       <c r="C2" s="75"/>
@@ -82838,7 +82838,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="71"/>
       <c r="B3" s="56"/>
       <c r="C3" s="75"/>
@@ -82851,187 +82851,187 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71"/>
       <c r="B4" s="56"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
-      <c r="K4" s="217"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="207"/>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="218" t="str">
+      <c r="C5" s="214" t="str">
         <f>IF(N5=0,"PREVIA DESCARGA COMPLEXO SANTOS","FECHAMENTO RP COMPLEXO SANTOS")</f>
         <v>PREVIA DESCARGA COMPLEXO SANTOS</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="219"/>
-      <c r="K5" s="220"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="216"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="71"/>
       <c r="B6" s="77"/>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="225" t="s">
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="222" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="226"/>
-      <c r="H6" s="221" t="s">
+      <c r="G6" s="223"/>
+      <c r="H6" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="222"/>
-      <c r="J6" s="223" t="s">
+      <c r="I6" s="219"/>
+      <c r="J6" s="220" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="224"/>
+      <c r="K6" s="221"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="71"/>
       <c r="B7" s="56">
         <v>1</v>
       </c>
-      <c r="C7" s="214" t="s">
+      <c r="C7" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="207">
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="217">
         <f>DETALHE!S266</f>
         <v>0</v>
       </c>
-      <c r="G7" s="208"/>
-      <c r="H7" s="207">
+      <c r="G7" s="213"/>
+      <c r="H7" s="217">
         <f>DETALHE!T266</f>
         <v>0</v>
       </c>
-      <c r="I7" s="208"/>
-      <c r="J7" s="212">
+      <c r="I7" s="213"/>
+      <c r="J7" s="208">
         <f>DETALHE!U266</f>
         <v>0</v>
       </c>
-      <c r="K7" s="213"/>
+      <c r="K7" s="209"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71"/>
       <c r="B8" s="56">
         <v>0</v>
       </c>
-      <c r="C8" s="214" t="s">
+      <c r="C8" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="207">
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="217">
         <f>DETALHE!AG266</f>
         <v>0</v>
       </c>
-      <c r="G8" s="208"/>
-      <c r="H8" s="207">
+      <c r="G8" s="213"/>
+      <c r="H8" s="217">
         <f>DETALHE!AH266</f>
         <v>0</v>
       </c>
-      <c r="I8" s="208"/>
-      <c r="J8" s="212">
+      <c r="I8" s="213"/>
+      <c r="J8" s="208">
         <f>DETALHE!AI266</f>
         <v>0</v>
       </c>
-      <c r="K8" s="213"/>
+      <c r="K8" s="209"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71"/>
       <c r="B9" s="56">
         <v>0</v>
       </c>
-      <c r="C9" s="214" t="s">
+      <c r="C9" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="207">
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="217">
         <f>DETALHE!BB266</f>
         <v>0</v>
       </c>
-      <c r="G9" s="208"/>
-      <c r="H9" s="207">
+      <c r="G9" s="213"/>
+      <c r="H9" s="217">
         <f>DETALHE!BC266</f>
         <v>0</v>
       </c>
-      <c r="I9" s="208"/>
-      <c r="J9" s="212">
+      <c r="I9" s="213"/>
+      <c r="J9" s="208">
         <f>DETALHE!BD266</f>
         <v>0</v>
       </c>
-      <c r="K9" s="213"/>
+      <c r="K9" s="209"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="71"/>
       <c r="B10" s="56">
         <v>1</v>
       </c>
-      <c r="C10" s="214" t="s">
+      <c r="C10" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="207">
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="217">
         <f>DETALHE!BP266</f>
         <v>0</v>
       </c>
-      <c r="G10" s="208"/>
-      <c r="H10" s="207">
+      <c r="G10" s="213"/>
+      <c r="H10" s="217">
         <f>DETALHE!BQ266</f>
         <v>0</v>
       </c>
-      <c r="I10" s="208"/>
-      <c r="J10" s="212">
+      <c r="I10" s="213"/>
+      <c r="J10" s="208">
         <f>DETALHE!BR266</f>
         <v>0</v>
       </c>
-      <c r="K10" s="213"/>
+      <c r="K10" s="209"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="71"/>
       <c r="B11" s="56">
         <v>0</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="212" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="208"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="207">
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="217">
         <f>DETALHE!CD266</f>
         <v>0</v>
       </c>
-      <c r="G11" s="208"/>
-      <c r="H11" s="207">
+      <c r="G11" s="213"/>
+      <c r="H11" s="217">
         <f>DETALHE!CE266</f>
         <v>0</v>
       </c>
-      <c r="I11" s="208"/>
-      <c r="J11" s="212">
+      <c r="I11" s="213"/>
+      <c r="J11" s="208">
         <f>DETALHE!CF266</f>
         <v>0</v>
       </c>
-      <c r="K11" s="213"/>
+      <c r="K11" s="209"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="71"/>
       <c r="B12" s="56">
         <v>0</v>
@@ -83046,7 +83046,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71"/>
       <c r="B13" s="56">
         <v>1</v>
@@ -83079,12 +83079,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="56">
         <v>1</v>
       </c>
-      <c r="C14" s="205" t="s">
+      <c r="C14" s="210" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="67" t="s">
@@ -83118,12 +83118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="56">
         <v>1</v>
       </c>
-      <c r="C15" s="206"/>
+      <c r="C15" s="211"/>
       <c r="D15" s="65" t="s">
         <v>116</v>
       </c>
@@ -83155,15 +83155,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="56">
         <v>1</v>
       </c>
-      <c r="C16" s="210" t="s">
+      <c r="C16" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="211"/>
+      <c r="D16" s="225"/>
       <c r="E16" s="62">
         <f>SUM(E14:E15)</f>
         <v>0</v>
@@ -83192,12 +83192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="71"/>
       <c r="B17" s="56">
         <v>1</v>
       </c>
-      <c r="C17" s="205" t="s">
+      <c r="C17" s="210" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="67" t="s">
@@ -83231,12 +83231,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71"/>
       <c r="B18" s="56">
         <v>1</v>
       </c>
-      <c r="C18" s="206"/>
+      <c r="C18" s="211"/>
       <c r="D18" s="65" t="s">
         <v>116</v>
       </c>
@@ -83268,15 +83268,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71"/>
       <c r="B19" s="56">
         <v>1</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="211"/>
+      <c r="D19" s="225"/>
       <c r="E19" s="62">
         <f>SUM(E17:E18)</f>
         <v>0</v>
@@ -83305,12 +83305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="71"/>
       <c r="B20" s="56">
         <v>1</v>
       </c>
-      <c r="C20" s="209" t="s">
+      <c r="C20" s="226" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="67" t="s">
@@ -83344,12 +83344,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="71"/>
       <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="206"/>
+      <c r="C21" s="211"/>
       <c r="D21" s="65" t="s">
         <v>116</v>
       </c>
@@ -83381,15 +83381,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71"/>
       <c r="B22" s="56">
         <v>1</v>
       </c>
-      <c r="C22" s="210" t="s">
+      <c r="C22" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="211"/>
+      <c r="D22" s="225"/>
       <c r="E22" s="62">
         <f>SUM(E20:E21)</f>
         <v>0</v>
@@ -83418,7 +83418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71"/>
       <c r="B23" s="56">
         <v>1</v>
@@ -83457,7 +83457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="71"/>
       <c r="B24" s="56">
         <v>1</v>
@@ -83472,7 +83472,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="71"/>
       <c r="B25" s="56">
         <v>1</v>
@@ -83505,12 +83505,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="71"/>
       <c r="B26" s="56">
         <v>1</v>
       </c>
-      <c r="C26" s="205" t="s">
+      <c r="C26" s="210" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="67" t="s">
@@ -83544,12 +83544,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="71"/>
       <c r="B27" s="56">
         <v>1</v>
       </c>
-      <c r="C27" s="206"/>
+      <c r="C27" s="211"/>
       <c r="D27" s="65" t="s">
         <v>116</v>
       </c>
@@ -83581,15 +83581,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="71"/>
       <c r="B28" s="56">
         <v>1</v>
       </c>
-      <c r="C28" s="210" t="s">
+      <c r="C28" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="211"/>
+      <c r="D28" s="225"/>
       <c r="E28" s="62">
         <f>SUM(E26:E27)</f>
         <v>0</v>
@@ -83618,12 +83618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="71"/>
       <c r="B29" s="56">
         <v>1</v>
       </c>
-      <c r="C29" s="205" t="s">
+      <c r="C29" s="210" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="67" t="s">
@@ -83657,12 +83657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="71"/>
       <c r="B30" s="56">
         <v>1</v>
       </c>
-      <c r="C30" s="206"/>
+      <c r="C30" s="211"/>
       <c r="D30" s="65" t="s">
         <v>116</v>
       </c>
@@ -83694,15 +83694,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="71"/>
       <c r="B31" s="56">
         <v>1</v>
       </c>
-      <c r="C31" s="210" t="s">
+      <c r="C31" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="211"/>
+      <c r="D31" s="225"/>
       <c r="E31" s="62">
         <f>SUM(E29:E30)</f>
         <v>0</v>
@@ -83731,12 +83731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="71"/>
       <c r="B32" s="56">
         <v>1</v>
       </c>
-      <c r="C32" s="209" t="s">
+      <c r="C32" s="226" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="67" t="s">
@@ -83770,12 +83770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="71"/>
       <c r="B33" s="56">
         <v>1</v>
       </c>
-      <c r="C33" s="206"/>
+      <c r="C33" s="211"/>
       <c r="D33" s="65" t="s">
         <v>116</v>
       </c>
@@ -83807,15 +83807,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="71"/>
       <c r="B34" s="56">
         <v>1</v>
       </c>
-      <c r="C34" s="210" t="s">
+      <c r="C34" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="211"/>
+      <c r="D34" s="225"/>
       <c r="E34" s="62">
         <f>SUM(E32:E33)</f>
         <v>0</v>
@@ -83844,7 +83844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="71"/>
       <c r="B35" s="56">
         <v>1</v>
@@ -83883,7 +83883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="71"/>
       <c r="B36" s="56">
         <v>1</v>
@@ -83898,7 +83898,7 @@
       <c r="J36" s="78"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="71"/>
       <c r="B37" s="56">
         <v>1</v>
@@ -83931,12 +83931,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="71"/>
       <c r="B38" s="56">
         <v>1</v>
       </c>
-      <c r="C38" s="205" t="s">
+      <c r="C38" s="210" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="67" t="s">
@@ -83970,12 +83970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="71"/>
       <c r="B39" s="56">
         <v>1</v>
       </c>
-      <c r="C39" s="206"/>
+      <c r="C39" s="211"/>
       <c r="D39" s="65" t="s">
         <v>116</v>
       </c>
@@ -84007,15 +84007,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="71"/>
       <c r="B40" s="56">
         <v>1</v>
       </c>
-      <c r="C40" s="210" t="s">
+      <c r="C40" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="211"/>
+      <c r="D40" s="225"/>
       <c r="E40" s="62">
         <f>SUM(E38:E39)</f>
         <v>0</v>
@@ -84044,12 +84044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="71"/>
       <c r="B41" s="56">
         <v>1</v>
       </c>
-      <c r="C41" s="205" t="s">
+      <c r="C41" s="210" t="s">
         <v>31</v>
       </c>
       <c r="D41" s="67" t="s">
@@ -84083,12 +84083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="71"/>
       <c r="B42" s="56">
         <v>1</v>
       </c>
-      <c r="C42" s="206"/>
+      <c r="C42" s="211"/>
       <c r="D42" s="65" t="s">
         <v>116</v>
       </c>
@@ -84120,15 +84120,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="71"/>
       <c r="B43" s="56">
         <v>1</v>
       </c>
-      <c r="C43" s="210" t="s">
+      <c r="C43" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="211"/>
+      <c r="D43" s="225"/>
       <c r="E43" s="62">
         <f>SUM(E41:E42)</f>
         <v>0</v>
@@ -84157,12 +84157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="71"/>
       <c r="B44" s="56">
         <v>1</v>
       </c>
-      <c r="C44" s="209" t="s">
+      <c r="C44" s="226" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="67" t="s">
@@ -84196,12 +84196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="56">
         <v>1</v>
       </c>
-      <c r="C45" s="206"/>
+      <c r="C45" s="211"/>
       <c r="D45" s="65" t="s">
         <v>116</v>
       </c>
@@ -84233,15 +84233,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="71"/>
       <c r="B46" s="56">
         <v>1</v>
       </c>
-      <c r="C46" s="210" t="s">
+      <c r="C46" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="211"/>
+      <c r="D46" s="225"/>
       <c r="E46" s="62">
         <f>SUM(E44:E45)</f>
         <v>0</v>
@@ -84270,7 +84270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="71"/>
       <c r="B47" s="72">
         <v>1</v>
@@ -84309,7 +84309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="71"/>
       <c r="B48" s="56">
         <v>1</v>
@@ -84324,7 +84324,7 @@
       <c r="J48" s="90"/>
       <c r="K48" s="90"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
       <c r="B49" s="90"/>
       <c r="C49" s="70" t="s">
@@ -84355,12 +84355,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="56">
         <v>1</v>
       </c>
-      <c r="C50" s="205" t="s">
+      <c r="C50" s="210" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="67" t="s">
@@ -84394,12 +84394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57"/>
       <c r="B51" s="56">
         <v>1</v>
       </c>
-      <c r="C51" s="206"/>
+      <c r="C51" s="211"/>
       <c r="D51" s="65" t="s">
         <v>116</v>
       </c>
@@ -84431,15 +84431,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
       <c r="B52" s="56">
         <v>1</v>
       </c>
-      <c r="C52" s="210" t="s">
+      <c r="C52" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="211"/>
+      <c r="D52" s="225"/>
       <c r="E52" s="62">
         <f>SUM(E50:E51)</f>
         <v>0</v>
@@ -84468,12 +84468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
       <c r="B53" s="56">
         <v>1</v>
       </c>
-      <c r="C53" s="205" t="s">
+      <c r="C53" s="210" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="67" t="s">
@@ -84507,12 +84507,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="71"/>
       <c r="B54" s="56">
         <v>1</v>
       </c>
-      <c r="C54" s="206"/>
+      <c r="C54" s="211"/>
       <c r="D54" s="65" t="s">
         <v>116</v>
       </c>
@@ -84544,15 +84544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="71"/>
       <c r="B55" s="56">
         <v>1</v>
       </c>
-      <c r="C55" s="210" t="s">
+      <c r="C55" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="211"/>
+      <c r="D55" s="225"/>
       <c r="E55" s="62">
         <f>SUM(E53:E54)</f>
         <v>0</v>
@@ -84581,12 +84581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="71"/>
       <c r="B56" s="56">
         <v>1</v>
       </c>
-      <c r="C56" s="209" t="s">
+      <c r="C56" s="226" t="s">
         <v>32</v>
       </c>
       <c r="D56" s="67" t="s">
@@ -84620,12 +84620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="71"/>
       <c r="B57" s="56">
         <v>1</v>
       </c>
-      <c r="C57" s="206"/>
+      <c r="C57" s="211"/>
       <c r="D57" s="65" t="s">
         <v>116</v>
       </c>
@@ -84657,15 +84657,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="71"/>
       <c r="B58" s="56">
         <v>1</v>
       </c>
-      <c r="C58" s="210" t="s">
+      <c r="C58" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="211"/>
+      <c r="D58" s="225"/>
       <c r="E58" s="62">
         <f>SUM(E56:E57)</f>
         <v>0</v>
@@ -84694,7 +84694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="71"/>
       <c r="B59" s="56">
         <v>1</v>
@@ -84733,7 +84733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="71"/>
       <c r="B60" s="56">
         <v>0</v>
@@ -84748,7 +84748,7 @@
       <c r="J60" s="90"/>
       <c r="K60" s="90"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
       <c r="B61" s="56">
         <v>0</v>
@@ -84781,12 +84781,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
       <c r="B62" s="56">
         <v>0</v>
       </c>
-      <c r="C62" s="205" t="s">
+      <c r="C62" s="210" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="67" t="s">
@@ -84820,12 +84820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="57"/>
       <c r="B63" s="56">
         <v>0</v>
       </c>
-      <c r="C63" s="206"/>
+      <c r="C63" s="211"/>
       <c r="D63" s="65" t="s">
         <v>116</v>
       </c>
@@ -84857,13 +84857,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="56"/>
-      <c r="C64" s="210" t="s">
+      <c r="C64" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="211"/>
+      <c r="D64" s="225"/>
       <c r="E64" s="62">
         <f>SUM(E62:E63)</f>
         <v>0</v>
@@ -84892,10 +84892,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="56"/>
-      <c r="C65" s="205" t="s">
+      <c r="C65" s="210" t="s">
         <v>31</v>
       </c>
       <c r="D65" s="67" t="s">
@@ -84929,10 +84929,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
       <c r="B66" s="56"/>
-      <c r="C66" s="206"/>
+      <c r="C66" s="211"/>
       <c r="D66" s="65" t="s">
         <v>116</v>
       </c>
@@ -84964,13 +84964,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="210" t="s">
+      <c r="C67" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="211"/>
+      <c r="D67" s="225"/>
       <c r="E67" s="62">
         <f>SUM(E65:E66)</f>
         <v>0</v>
@@ -84999,10 +84999,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="56"/>
-      <c r="C68" s="209" t="s">
+      <c r="C68" s="226" t="s">
         <v>32</v>
       </c>
       <c r="D68" s="67" t="s">
@@ -85036,10 +85036,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="57"/>
       <c r="B69" s="56"/>
-      <c r="C69" s="206"/>
+      <c r="C69" s="211"/>
       <c r="D69" s="65" t="s">
         <v>116</v>
       </c>
@@ -85071,13 +85071,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="57"/>
       <c r="B70" s="56"/>
-      <c r="C70" s="210" t="s">
+      <c r="C70" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="211"/>
+      <c r="D70" s="225"/>
       <c r="E70" s="62">
         <f>SUM(E68:E69)</f>
         <v>0</v>
@@ -85106,7 +85106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="57"/>
       <c r="B71" s="56"/>
       <c r="C71" s="60" t="s">
@@ -85143,7 +85143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="57"/>
       <c r="B72" s="56"/>
       <c r="C72" s="55"/>
@@ -85158,30 +85158,22 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="C6:E6"/>
@@ -85198,22 +85190,30 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
